--- a/Outputs/YD/PCS.xlsx
+++ b/Outputs/YD/PCS.xlsx
@@ -1047,7 +1047,7 @@
         <v>0.391155777781</v>
       </c>
       <c r="N2">
-        <v>0.6511611551600001</v>
+        <v>0.653082764965</v>
       </c>
       <c r="O2">
         <v>0.404423897695</v>
@@ -1068,7 +1068,7 @@
         <v>0.2</v>
       </c>
       <c r="U2">
-        <v>0.4273179287003201</v>
+        <v>0.42808657262232</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1279,7 +1279,7 @@
         <v>0.396508268247</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.0299812321328</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0.2</v>
       </c>
       <c r="U7">
-        <v>0.1250611417762</v>
+        <v>0.13705363462932</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1423,7 +1423,7 @@
         <v>0.444225825768</v>
       </c>
       <c r="N10">
-        <v>0.251558089842</v>
+        <v>0.26176512699</v>
       </c>
       <c r="O10">
         <v>0.310934087804</v>
@@ -1444,7 +1444,7 @@
         <v>0.2</v>
       </c>
       <c r="U10">
-        <v>0.2845012373698</v>
+        <v>0.288584052229</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1488,7 +1488,7 @@
         <v>0.622144428353</v>
       </c>
       <c r="N11">
-        <v>0.213424169559</v>
+        <v>0.279650042766</v>
       </c>
       <c r="O11">
         <v>0.633787665265</v>
@@ -1509,7 +1509,7 @@
         <v>0.2</v>
       </c>
       <c r="U11">
-        <v>0.35508618455896</v>
+        <v>0.38157653384176</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1553,7 +1553,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N12">
-        <v>0.6511611551600001</v>
+        <v>0.6732022110410001</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>0.2</v>
       </c>
       <c r="U12">
-        <v>0.5640722196078001</v>
+        <v>0.5728886419602</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1618,7 +1618,7 @@
         <v>0.421735315021</v>
       </c>
       <c r="N13">
-        <v>0.00032909489081</v>
+        <v>0.00048176206004</v>
       </c>
       <c r="O13">
         <v>0.267076892183</v>
@@ -1639,7 +1639,7 @@
         <v>0.2</v>
       </c>
       <c r="U13">
-        <v>0.178405816446324</v>
+        <v>0.178466883314016</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1683,7 +1683,7 @@
         <v>0.408801188511</v>
       </c>
       <c r="N14">
-        <v>0.0005833300700440001</v>
+        <v>0.000945542838036</v>
       </c>
       <c r="O14">
         <v>0.248555783857</v>
@@ -1704,7 +1704,7 @@
         <v>0.2</v>
       </c>
       <c r="U14">
-        <v>0.1722164635508176</v>
+        <v>0.1723613486580144</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1748,7 +1748,7 @@
         <v>0.515570544302</v>
       </c>
       <c r="N15">
-        <v>0.0007254545662939999</v>
+        <v>0.00107994025375</v>
       </c>
       <c r="O15">
         <v>0.279403380057</v>
@@ -1769,7 +1769,7 @@
         <v>0.2</v>
       </c>
       <c r="U15">
-        <v>0.1888058842287176</v>
+        <v>0.1889476785037</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1813,7 +1813,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N16">
-        <v>0.000218929648959</v>
+        <v>0.000412948042333</v>
       </c>
       <c r="O16">
         <v>0.312665687207</v>
@@ -1834,7 +1834,7 @@
         <v>0.2</v>
       </c>
       <c r="U16">
-        <v>0.1815599035059836</v>
+        <v>0.1816375108633332</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1940,7 +1940,7 @@
         <v>0.7795237229719999</v>
       </c>
       <c r="N18">
-        <v>0.005435797544689999</v>
+        <v>0.009916652517520001</v>
       </c>
       <c r="O18">
         <v>0.244191246644</v>
@@ -1961,7 +1961,7 @@
         <v>0.2</v>
       </c>
       <c r="U18">
-        <v>0.233351618393476</v>
+        <v>0.235143960382608</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2005,7 +2005,7 @@
         <v>0.658698490404</v>
       </c>
       <c r="N19">
-        <v>0.00253285119988</v>
+        <v>0.0045029794587</v>
       </c>
       <c r="O19">
         <v>0.7002909349959999</v>
@@ -2026,7 +2026,7 @@
         <v>0.2</v>
       </c>
       <c r="U19">
-        <v>0.291341123571712</v>
+        <v>0.29212917487524</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2070,7 +2070,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N20">
-        <v>0.00111619573752</v>
+        <v>0.00226271872039</v>
       </c>
       <c r="O20">
         <v>0.576191142141</v>
@@ -2091,7 +2091,7 @@
         <v>0.2</v>
       </c>
       <c r="U20">
-        <v>0.226958182597608</v>
+        <v>0.227416791790756</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2135,7 +2135,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N21">
-        <v>0.0030692818897</v>
+        <v>0.006155788518930001</v>
       </c>
       <c r="O21">
         <v>0.420248071689</v>
@@ -2156,7 +2156,7 @@
         <v>0.2</v>
       </c>
       <c r="U21">
-        <v>0.19138774024968</v>
+        <v>0.192622342901372</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2200,7 +2200,7 @@
         <v>0.501035738055</v>
       </c>
       <c r="N22">
-        <v>0.00023214724807</v>
+        <v>0.000500441836439</v>
       </c>
       <c r="O22">
         <v>0.331826812397</v>
@@ -2221,7 +2221,7 @@
         <v>0.2</v>
       </c>
       <c r="U22">
-        <v>0.196186286520028</v>
+        <v>0.1962936043553756</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2265,7 +2265,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N23">
-        <v>0.000218929648959</v>
+        <v>0.000564695251746</v>
       </c>
       <c r="O23">
         <v>0.299204555813</v>
@@ -2286,7 +2286,7 @@
         <v>0.2</v>
       </c>
       <c r="U23">
-        <v>0.1788676772271836</v>
+        <v>0.1790059834682984</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2330,7 +2330,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.0323562919051</v>
       </c>
       <c r="O24">
         <v>0.10693116172</v>
@@ -2351,7 +2351,7 @@
         <v>0.2</v>
       </c>
       <c r="U24">
-        <v>0.140325426549</v>
+        <v>0.15326794331104</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2395,7 +2395,7 @@
         <v>0.392941792532</v>
       </c>
       <c r="N25">
-        <v>0.00111619573752</v>
+        <v>0.00226271872039</v>
       </c>
       <c r="O25">
         <v>0.424803269254</v>
@@ -2416,7 +2416,7 @@
         <v>0.2</v>
       </c>
       <c r="U25">
-        <v>0.204507227701408</v>
+        <v>0.204965836894556</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2480,7 +2480,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N27">
-        <v>0.0041417778627</v>
+        <v>0.007775013377640001</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0.2</v>
       </c>
       <c r="U27">
-        <v>0.11026977991308</v>
+        <v>0.111723074119056</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2542,7 +2542,7 @@
         <v>0.394383734865</v>
       </c>
       <c r="N28">
-        <v>0.296883612604</v>
+        <v>0.345410891487</v>
       </c>
       <c r="O28">
         <v>0.061119657476</v>
@@ -2563,7 +2563,7 @@
         <v>0.2</v>
       </c>
       <c r="U28">
-        <v>0.23753707951</v>
+        <v>0.2569479910632</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2648,7 +2648,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>0.00406239273002</v>
       </c>
       <c r="O30">
         <v>0.105704788235</v>
@@ -2669,7 +2669,7 @@
         <v>0.2</v>
       </c>
       <c r="U30">
-        <v>0.1349170891336</v>
+        <v>0.136542046225608</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2713,7 +2713,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N31">
-        <v>0.0041417778627</v>
+        <v>0.007845876115819999</v>
       </c>
       <c r="O31">
         <v>0.483305901295</v>
@@ -2734,7 +2734,7 @@
         <v>0.2</v>
       </c>
       <c r="U31">
-        <v>0.20693096017208</v>
+        <v>0.208412599473328</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2778,7 +2778,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N32">
-        <v>0.0006710166536480001</v>
+        <v>0.00129076395978</v>
       </c>
       <c r="O32">
         <v>0.0414438934131</v>
@@ -2799,7 +2799,7 @@
         <v>0.2</v>
       </c>
       <c r="U32">
-        <v>0.1274963795490792</v>
+        <v>0.127744278471532</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2925,7 +2925,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N35">
-        <v>0.0006710166536480001</v>
+        <v>0.00129076395978</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0.2</v>
       </c>
       <c r="U35">
-        <v>0.1192076008664592</v>
+        <v>0.119455499788912</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3028,7 +3028,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N37">
-        <v>0.0005087718606549999</v>
+        <v>0.00120291198103</v>
       </c>
       <c r="O37">
         <v>0.791790828017</v>
@@ -3049,7 +3049,7 @@
         <v>0.2</v>
       </c>
       <c r="U37">
-        <v>0.277500868552662</v>
+        <v>0.277778524600812</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3093,7 +3093,7 @@
         <v>0.437636443879</v>
       </c>
       <c r="N38">
-        <v>0.00133960952139</v>
+        <v>0.00229943888783</v>
       </c>
       <c r="O38">
         <v>0.334608805891</v>
@@ -3114,7 +3114,7 @@
         <v>0.2</v>
       </c>
       <c r="U38">
-        <v>0.180907593605156</v>
+        <v>0.181291525351732</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3158,7 +3158,7 @@
         <v>0.586119517941</v>
       </c>
       <c r="N39">
-        <v>0.522157616695</v>
+        <v>0.560672139662</v>
       </c>
       <c r="O39">
         <v>0.732677474531</v>
@@ -3179,7 +3179,7 @@
         <v>0.2</v>
       </c>
       <c r="U39">
-        <v>0.5017403162944001</v>
+        <v>0.5171461254812</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3223,7 +3223,7 @@
         <v>0.755362173771</v>
       </c>
       <c r="N40">
-        <v>0.00643472136097</v>
+        <v>0.0112344280144</v>
       </c>
       <c r="O40">
         <v>0.193996507346</v>
@@ -3244,7 +3244,7 @@
         <v>0.2</v>
       </c>
       <c r="U40">
-        <v>0.226784137660788</v>
+        <v>0.22870402032216</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3288,7 +3288,7 @@
         <v>0.706151529597</v>
       </c>
       <c r="N41">
-        <v>0.00434726104085</v>
+        <v>0.00677580102801</v>
       </c>
       <c r="O41">
         <v>0.0714184639548</v>
@@ -3309,7 +3309,7 @@
         <v>0.2</v>
       </c>
       <c r="U41">
-        <v>0.1797989950911</v>
+        <v>0.180770411085964</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3418,7 +3418,7 @@
         <v>0.423398148368</v>
       </c>
       <c r="N43">
-        <v>0.00286149386042</v>
+        <v>0.00515789871492</v>
       </c>
       <c r="O43">
         <v>0.362607173209</v>
@@ -3439,7 +3439,7 @@
         <v>0.2</v>
       </c>
       <c r="U43">
-        <v>0.192184642958568</v>
+        <v>0.193103204900368</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3483,7 +3483,7 @@
         <v>0.392201336143</v>
       </c>
       <c r="N44">
-        <v>0.00328409550528</v>
+        <v>0.006245267281770001</v>
       </c>
       <c r="O44">
         <v>0.419450211747</v>
@@ -3504,7 +3504,7 @@
         <v>0.2</v>
       </c>
       <c r="U44">
-        <v>0.188518862653512</v>
+        <v>0.189703331364108</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3719,7 +3719,7 @@
         <v>0.393856390637</v>
       </c>
       <c r="N48">
-        <v>0.522157616695</v>
+        <v>0.560672139662</v>
       </c>
       <c r="O48">
         <v>0.22800864916</v>
@@ -3740,7 +3740,7 @@
         <v>0.2</v>
       </c>
       <c r="U48">
-        <v>0.3675745675304</v>
+        <v>0.3829803767172</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3849,7 +3849,7 @@
         <v>0.420892331623</v>
       </c>
       <c r="N50">
-        <v>0.631011797502</v>
+        <v>0.648547728744</v>
       </c>
       <c r="O50">
         <v>0.0832985339262</v>
@@ -3870,7 +3870,7 @@
         <v>0.2</v>
       </c>
       <c r="U50">
-        <v>0.38758140500364</v>
+        <v>0.39459577750044</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3893,7 +3893,7 @@
         <v>0.404472991394</v>
       </c>
       <c r="N51">
-        <v>0.00133960952139</v>
+        <v>0.00285167610854</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0.2</v>
       </c>
       <c r="U51">
-        <v>0.09276410472355601</v>
+        <v>0.09336893135841601</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4020,7 +4020,7 @@
         <v>0.392265386507</v>
       </c>
       <c r="N53">
-        <v>0.00103319715644</v>
+        <v>0.00186813964242</v>
       </c>
       <c r="O53">
         <v>0.376055595598</v>
@@ -4041,7 +4041,7 @@
         <v>0.2</v>
       </c>
       <c r="U53">
-        <v>0.173962727803876</v>
+        <v>0.174296704798268</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4085,7 +4085,7 @@
         <v>0.391129977807</v>
       </c>
       <c r="N54">
-        <v>0.000243471980986</v>
+        <v>0.000422065282097</v>
       </c>
       <c r="O54">
         <v>0.409194573835</v>
@@ -4106,7 +4106,7 @@
         <v>0.2</v>
       </c>
       <c r="U54">
-        <v>0.1823818656247944</v>
+        <v>0.1824533029452388</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4150,7 +4150,7 @@
         <v>0.393807138439</v>
       </c>
       <c r="N55">
-        <v>0.00133960952139</v>
+        <v>0.00285167610854</v>
       </c>
       <c r="O55">
         <v>0.217071692646</v>
@@ -4171,7 +4171,7 @@
         <v>0.2</v>
       </c>
       <c r="U55">
-        <v>0.147124616636556</v>
+        <v>0.147729443271416</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4342,7 +4342,7 @@
         <v>0.5752761513579999</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>2.13266282143e-05</v>
       </c>
       <c r="O58">
         <v>0.284540163732</v>
@@ -4363,7 +4363,7 @@
         <v>0.2</v>
       </c>
       <c r="U58">
-        <v>0.1832969256542</v>
+        <v>0.1833054563054857</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4407,7 +4407,7 @@
         <v>0.540588496179</v>
       </c>
       <c r="N59">
-        <v>0.00151492226754</v>
+        <v>0.0022554603908</v>
       </c>
       <c r="O59">
         <v>0.274899910364</v>
@@ -4428,7 +4428,7 @@
         <v>0.2</v>
       </c>
       <c r="U59">
-        <v>0.174747317051636</v>
+        <v>0.17504353230094</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4472,7 +4472,7 @@
         <v>0.451043300452</v>
       </c>
       <c r="N60">
-        <v>0.00217604743081</v>
+        <v>0.00350334458224</v>
       </c>
       <c r="O60">
         <v>0.0612956220925</v>
@@ -4493,7 +4493,7 @@
         <v>0.2</v>
       </c>
       <c r="U60">
-        <v>0.127751210092224</v>
+        <v>0.128282128952796</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4537,7 +4537,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N61">
-        <v>0.00286149386042</v>
+        <v>0.00515789871492</v>
       </c>
       <c r="O61">
         <v>0.134621384081</v>
@@ -4558,7 +4558,7 @@
         <v>0.2</v>
       </c>
       <c r="U61">
-        <v>0.143988682101968</v>
+        <v>0.144907244043768</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4667,7 +4667,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N63">
-        <v>0.00675908311643</v>
+        <v>0.0136110596578</v>
       </c>
       <c r="O63">
         <v>0.118388071904</v>
@@ -4688,7 +4688,7 @@
         <v>0.2</v>
       </c>
       <c r="U63">
-        <v>0.142301055368972</v>
+        <v>0.14504184598552</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4711,7 +4711,7 @@
         <v>0.392137285779</v>
       </c>
       <c r="N64">
-        <v>0.00286149386042</v>
+        <v>0.00617284469929</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0.2</v>
       </c>
       <c r="U64">
-        <v>0.117064405285768</v>
+        <v>0.118388945621316</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4838,7 +4838,7 @@
         <v>0.523437230226</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>2.13266282143e-05</v>
       </c>
       <c r="O66">
         <v>0.348649106576</v>
@@ -4859,7 +4859,7 @@
         <v>0.2</v>
       </c>
       <c r="U66">
-        <v>0.2095778379506</v>
+        <v>0.2095863686018857</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4947,7 +4947,7 @@
         <v>0.392265386507</v>
       </c>
       <c r="N68">
-        <v>0.334755380935</v>
+        <v>0.385621535845</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0.2</v>
       </c>
       <c r="U68">
-        <v>0.2322404821957</v>
+        <v>0.2525869441597</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5180,7 +5180,7 @@
         <v>0.391129977807</v>
       </c>
       <c r="N72">
-        <v>0.000968680320496</v>
+        <v>0.00177514452992</v>
       </c>
       <c r="O72">
         <v>0.3829727723569999</v>
@@ -5201,7 +5201,7 @@
         <v>0.2</v>
       </c>
       <c r="U72">
-        <v>0.1750932746812984</v>
+        <v>0.175415860365068</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5245,7 +5245,7 @@
         <v>0.390792336596</v>
       </c>
       <c r="N73">
-        <v>0.000525582477464</v>
+        <v>0.000897995719253</v>
       </c>
       <c r="O73">
         <v>0.047049403795</v>
@@ -5266,7 +5266,7 @@
         <v>0.2</v>
       </c>
       <c r="U73">
-        <v>0.1252709316549856</v>
+        <v>0.1254198969517012</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5310,7 +5310,7 @@
         <v>0.390792336596</v>
       </c>
       <c r="N74">
-        <v>0.000397882780802</v>
+        <v>0.000672744560456</v>
       </c>
       <c r="O74">
         <v>0.0775425734479</v>
@@ -5331,7 +5331,7 @@
         <v>0.2</v>
       </c>
       <c r="U74">
-        <v>0.1313184857069008</v>
+        <v>0.1314284304187624</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5570,7 +5570,7 @@
         <v>0.389978484492</v>
       </c>
       <c r="N78">
-        <v>0.000330480860798</v>
+        <v>0.0005650745124650001</v>
       </c>
       <c r="O78">
         <v>0.0526910291855</v>
@@ -5591,7 +5591,7 @@
         <v>0.2</v>
       </c>
       <c r="U78">
-        <v>0.1261584456656192</v>
+        <v>0.126252283126286</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5635,7 +5635,7 @@
         <v>0.389447309373</v>
       </c>
       <c r="N79">
-        <v>0.271673918664</v>
+        <v>0.28861768612</v>
       </c>
       <c r="O79">
         <v>0.0393461492948</v>
@@ -5656,7 +5656,7 @@
         <v>0.2</v>
       </c>
       <c r="U79">
-        <v>0.23192060978496</v>
+        <v>0.23869811676736</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5895,7 +5895,7 @@
         <v>0.3905096596099999</v>
       </c>
       <c r="N83">
-        <v>0.000330480860798</v>
+        <v>0.0005650745124650001</v>
       </c>
       <c r="O83">
         <v>0.09840571447010001</v>
@@ -5916,7 +5916,7 @@
         <v>0.2</v>
       </c>
       <c r="U83">
-        <v>0.1354076177461392</v>
+        <v>0.135501455206806</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -6125,7 +6125,7 @@
         <v>0.485062846635</v>
       </c>
       <c r="N87">
-        <v>0.00316452024321</v>
+        <v>0.00416458591819</v>
       </c>
       <c r="O87">
         <v>0.25544068763</v>
@@ -6146,7 +6146,7 @@
         <v>0.2</v>
       </c>
       <c r="U87">
-        <v>0.160120185986124</v>
+        <v>0.160520212256116</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6169,7 +6169,7 @@
         <v>0.414471100541</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>0.03823308472759999</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>0.2</v>
       </c>
       <c r="U88">
-        <v>0.09364789114404001</v>
+        <v>0.10894112503508</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6231,7 +6231,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N89">
-        <v>0.0020744332254</v>
+        <v>0.00378681553169</v>
       </c>
       <c r="O89">
         <v>0.322596975578</v>
@@ -6252,7 +6252,7 @@
         <v>0.2</v>
       </c>
       <c r="U89">
-        <v>0.16323335035546</v>
+        <v>0.163918303277976</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6296,7 +6296,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N90">
-        <v>0.353602552864</v>
+        <v>0.396284960229</v>
       </c>
       <c r="O90">
         <v>0.295212316254</v>
@@ -6317,7 +6317,7 @@
         <v>0.2</v>
       </c>
       <c r="U90">
-        <v>0.2983676663461</v>
+        <v>0.3154406292921</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6426,7 +6426,7 @@
         <v>0.392093684804</v>
       </c>
       <c r="N92">
-        <v>0.631011797502</v>
+        <v>0.646994499874</v>
       </c>
       <c r="O92">
         <v>0.0476564433017</v>
@@ -6447,7 +6447,7 @@
         <v>0.2</v>
       </c>
       <c r="U92">
-        <v>0.37469325751494</v>
+        <v>0.38108633846374</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6594,7 +6594,7 @@
         <v>0.3905096596099999</v>
       </c>
       <c r="N95">
-        <v>0.000330480860798</v>
+        <v>0.0005650745124650001</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -6615,7 +6615,7 @@
         <v>0.2</v>
       </c>
       <c r="U95">
-        <v>0.1157264748521192</v>
+        <v>0.115820312312786</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6659,7 +6659,7 @@
         <v>0.391064617769</v>
       </c>
       <c r="N96">
-        <v>0.00265945493263</v>
+        <v>0.00454396713997</v>
       </c>
       <c r="O96">
         <v>0.142708072396</v>
@@ -6680,7 +6680,7 @@
         <v>0.2</v>
       </c>
       <c r="U96">
-        <v>0.154892344573452</v>
+        <v>0.155646149456388</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6785,7 +6785,7 @@
         <v>0.571262551178</v>
       </c>
       <c r="N99">
-        <v>0.000682648640597</v>
+        <v>0.00121512012659</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0.2</v>
       </c>
       <c r="U99">
-        <v>0.1252792407276788</v>
+        <v>0.125492229322076</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6847,7 +6847,7 @@
         <v>0.469082406617</v>
       </c>
       <c r="N100">
-        <v>0.000682648640597</v>
+        <v>0.00121512012659</v>
       </c>
       <c r="O100">
         <v>0.898396271633</v>
@@ -6868,7 +6868,7 @@
         <v>0.2</v>
       </c>
       <c r="U100">
-        <v>0.3074734798986388</v>
+        <v>0.307686468493036</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6912,7 +6912,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N101">
-        <v>0.00516946067822</v>
+        <v>0.009485265184930002</v>
       </c>
       <c r="O101">
         <v>0.397931995612</v>
@@ -6933,7 +6933,7 @@
         <v>0.2</v>
       </c>
       <c r="U101">
-        <v>0.171121706574128</v>
+        <v>0.172848028376812</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6977,7 +6977,7 @@
         <v>0.472866580181</v>
       </c>
       <c r="N102">
-        <v>0.0004606762958480001</v>
+        <v>0.000759763818915</v>
       </c>
       <c r="O102">
         <v>0.309228998354</v>
@@ -6998,7 +6998,7 @@
         <v>0.2</v>
       </c>
       <c r="U102">
-        <v>0.2132590847741392</v>
+        <v>0.213378719783366</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -7042,7 +7042,7 @@
         <v>0.523661027315</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>3.68595611887e-06</v>
       </c>
       <c r="O103">
         <v>0.804888281679</v>
@@ -7063,7 +7063,7 @@
         <v>0.2</v>
       </c>
       <c r="U103">
-        <v>0.3223655603476</v>
+        <v>0.3223670347300476</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -7169,7 +7169,7 @@
         <v>0.5796383869699999</v>
       </c>
       <c r="N105">
-        <v>0.0004606762958480001</v>
+        <v>0.0007699104288150001</v>
       </c>
       <c r="O105">
         <v>0.318426799488</v>
@@ -7190,7 +7190,7 @@
         <v>0.2</v>
       </c>
       <c r="U105">
-        <v>0.2364530063587392</v>
+        <v>0.236576700011926</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7296,7 +7296,7 @@
         <v>0.5737852019290001</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>6.321900934949999e-05</v>
       </c>
       <c r="O107">
         <v>0.324730789505</v>
@@ -7317,7 +7317,7 @@
         <v>0.2</v>
       </c>
       <c r="U107">
-        <v>0.2363588968356</v>
+        <v>0.2363841844393398</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7361,7 +7361,7 @@
         <v>0.483599674743</v>
       </c>
       <c r="N108">
-        <v>0.000682648640597</v>
+        <v>0.00126073190268</v>
       </c>
       <c r="O108">
         <v>0.342577751003</v>
@@ -7382,7 +7382,7 @@
         <v>0.2</v>
       </c>
       <c r="U108">
-        <v>0.2221642431542388</v>
+        <v>0.222395476459072</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7426,7 +7426,7 @@
         <v>0.3900442229159999</v>
       </c>
       <c r="N109">
-        <v>0.353602552864</v>
+        <v>0.396284960229</v>
       </c>
       <c r="O109">
         <v>0.260012694041</v>
@@ -7447,7 +7447,7 @@
         <v>0.2</v>
       </c>
       <c r="U109">
-        <v>0.29075874664732</v>
+        <v>0.30783170959332</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7491,7 +7491,7 @@
         <v>0.571641516817</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>0.0366710062399</v>
       </c>
       <c r="O110">
         <v>0.268618823757</v>
@@ -7512,7 +7512,7 @@
         <v>0.2</v>
       </c>
       <c r="U110">
-        <v>0.2247077666636</v>
+        <v>0.23937616915956</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7535,7 +7535,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N111">
-        <v>0.366683846455</v>
+        <v>0.410509085946</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0.2</v>
       </c>
       <c r="U111">
-        <v>0.2492263484992</v>
+        <v>0.2667564442956</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7597,7 +7597,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>3.21342989389e-06</v>
       </c>
       <c r="O112">
         <v>0.07191497143839999</v>
@@ -7618,7 +7618,7 @@
         <v>0.2</v>
       </c>
       <c r="U112">
-        <v>0.11693580420488</v>
+        <v>0.1169370895768376</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7662,7 +7662,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N113">
-        <v>0.00023337676045</v>
+        <v>0.000396495326177</v>
       </c>
       <c r="O113">
         <v>0.229783663414</v>
@@ -7683,7 +7683,7 @@
         <v>0.2</v>
       </c>
       <c r="U113">
-        <v>0.14860289330418</v>
+        <v>0.1486681407304708</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7792,7 +7792,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>3.79277162588e-06</v>
       </c>
       <c r="O115">
         <v>0.423161605187</v>
@@ -7813,7 +7813,7 @@
         <v>0.2</v>
       </c>
       <c r="U115">
-        <v>0.1871851309546</v>
+        <v>0.1871866480632504</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7833,7 +7833,7 @@
         <v>0.3905096596099999</v>
       </c>
       <c r="N116">
-        <v>0.00265945493263</v>
+        <v>0.00471234161895</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -7851,7 +7851,7 @@
         <v>0.2</v>
       </c>
       <c r="U116">
-        <v>0.135821412443852</v>
+        <v>0.13664256711838</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7960,7 +7960,7 @@
         <v>0.450760623466</v>
       </c>
       <c r="N118">
-        <v>0.0158533912502</v>
+        <v>0.0268937337484</v>
       </c>
       <c r="O118">
         <v>0.104645158514</v>
@@ -7981,7 +7981,7 @@
         <v>0.2</v>
       </c>
       <c r="U118">
-        <v>0.17407821144488</v>
+        <v>0.17849434844416</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -8066,7 +8066,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N120">
-        <v>0.000702870455234</v>
+        <v>0.00120553555805</v>
       </c>
       <c r="O120">
         <v>0.249896009266</v>
@@ -8087,7 +8087,7 @@
         <v>0.2</v>
       </c>
       <c r="U120">
-        <v>0.1313112144464936</v>
+        <v>0.13151228048762</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -8131,7 +8131,7 @@
         <v>0.392654400123</v>
       </c>
       <c r="N121">
-        <v>8.3977530133e-05</v>
+        <v>0.000169694304701</v>
       </c>
       <c r="O121">
         <v>0.740261626343</v>
@@ -8152,7 +8152,7 @@
         <v>0.2</v>
       </c>
       <c r="U121">
-        <v>0.2296687312870532</v>
+        <v>0.2297030179968804</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -8196,7 +8196,7 @@
         <v>0.390204400395</v>
       </c>
       <c r="N122">
-        <v>0.366683846455</v>
+        <v>0.413707674631</v>
       </c>
       <c r="O122">
         <v>0.289896846676</v>
@@ -8217,7 +8217,7 @@
         <v>0.2</v>
       </c>
       <c r="U122">
-        <v>0.3102789784786</v>
+        <v>0.329088509749</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -8261,7 +8261,7 @@
         <v>0.40034634226</v>
       </c>
       <c r="N123">
-        <v>0.000109197458438</v>
+        <v>0.00021795402502</v>
       </c>
       <c r="O123">
         <v>0.37287712019</v>
@@ -8282,7 +8282,7 @@
         <v>0.2</v>
       </c>
       <c r="U123">
-        <v>0.1715225892027752</v>
+        <v>0.171566091829408</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -8326,7 +8326,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N124">
-        <v>0.000335352955376</v>
+        <v>0.0005252748622290001</v>
       </c>
       <c r="O124">
         <v>0.26657486795</v>
@@ -8347,7 +8347,7 @@
         <v>0.2</v>
       </c>
       <c r="U124">
-        <v>0.1344999791833504</v>
+        <v>0.1345759479460916</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -8391,7 +8391,7 @@
         <v>0.393223134624</v>
       </c>
       <c r="N125">
-        <v>0.0158533912502</v>
+        <v>0.0268937337484</v>
       </c>
       <c r="O125">
         <v>0.0827802102047</v>
@@ -8412,7 +8412,7 @@
         <v>0.2</v>
       </c>
       <c r="U125">
-        <v>0.14534384223042</v>
+        <v>0.1497599792297</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8456,7 +8456,7 @@
         <v>0.39022053526</v>
       </c>
       <c r="N126">
-        <v>0.000973172291098</v>
+        <v>0.00169364347327</v>
       </c>
       <c r="O126">
         <v>0.175887776069</v>
@@ -8477,7 +8477,7 @@
         <v>0.2</v>
       </c>
       <c r="U126">
-        <v>0.1442274316592392</v>
+        <v>0.144515620132108</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8627,7 +8627,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N129">
-        <v>0.000335352955376</v>
+        <v>0.000526844691806</v>
       </c>
       <c r="O129">
         <v>0.273877271468</v>
@@ -8648,7 +8648,7 @@
         <v>0.2</v>
       </c>
       <c r="U129">
-        <v>0.1359604598869504</v>
+        <v>0.1360370565815224</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8671,7 +8671,7 @@
         <v>0.390086640516</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>2.76770972179e-06</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0.2</v>
       </c>
       <c r="U130">
-        <v>0.081069263085</v>
+        <v>0.08107037016888871</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8730,7 +8730,7 @@
         <v>0.3905998260719999</v>
       </c>
       <c r="N131">
-        <v>0.000118312217218</v>
+        <v>0.000280923019677</v>
       </c>
       <c r="O131">
         <v>0.412018460148</v>
@@ -8751,7 +8751,7 @@
         <v>0.2</v>
       </c>
       <c r="U131">
-        <v>0.1636229171126872</v>
+        <v>0.1636879614336708</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8792,7 +8792,7 @@
         <v>0.3905096596099999</v>
       </c>
       <c r="N132">
-        <v>0.0158533912502</v>
+        <v>0.0268937337484</v>
       </c>
       <c r="O132">
         <v>0.05163677829530001</v>
@@ -8813,7 +8813,7 @@
         <v>0.2</v>
       </c>
       <c r="U132">
-        <v>0.12571857906174</v>
+        <v>0.13013471606102</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8854,7 +8854,7 @@
         <v>0.401121597631</v>
       </c>
       <c r="N133">
-        <v>0.00204730678195</v>
+        <v>0.00345176176104</v>
       </c>
       <c r="O133">
         <v>0.059705024904</v>
@@ -8875,7 +8875,7 @@
         <v>0.2</v>
       </c>
       <c r="U133">
-        <v>0.12393218220038</v>
+        <v>0.124493964192016</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8984,7 +8984,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N135">
-        <v>0.0003375020853759999</v>
+        <v>0.0005339535497840001</v>
       </c>
       <c r="O135">
         <v>0.332115924567</v>
@@ -9005,7 +9005,7 @@
         <v>0.2</v>
       </c>
       <c r="U135">
-        <v>0.1476090501587504</v>
+        <v>0.1476876307445136</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -9049,7 +9049,7 @@
         <v>0.4839146406499999</v>
       </c>
       <c r="N136">
-        <v>0.00203860041238</v>
+        <v>0.00368289134524</v>
       </c>
       <c r="O136">
         <v>0.7661043482979999</v>
@@ -9070,7 +9070,7 @@
         <v>0.2</v>
       </c>
       <c r="U136">
-        <v>0.270279467787212</v>
+        <v>0.270937184160356</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -9114,7 +9114,7 @@
         <v>0.390467545168</v>
       </c>
       <c r="N137">
-        <v>0.00148992658691</v>
+        <v>0.00241582663956</v>
       </c>
       <c r="O137">
         <v>0.261248513278</v>
@@ -9135,7 +9135,7 @@
         <v>0.2</v>
       </c>
       <c r="U137">
-        <v>0.147773400053364</v>
+        <v>0.148143760074424</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -9303,7 +9303,7 @@
         <v>0.523339588811</v>
       </c>
       <c r="N140">
-        <v>0.00268310486012</v>
+        <v>0.00429542333491</v>
       </c>
       <c r="O140">
         <v>0.320633080733</v>
@@ -9324,7 +9324,7 @@
         <v>0.2</v>
       </c>
       <c r="U140">
-        <v>0.200649993581648</v>
+        <v>0.201294920971564</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -9368,7 +9368,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N141">
-        <v>0.00192863251306</v>
+        <v>0.00307969574163</v>
       </c>
       <c r="O141">
         <v>0.180426681981</v>
@@ -9389,7 +9389,7 @@
         <v>0.2</v>
       </c>
       <c r="U141">
-        <v>0.145472219307824</v>
+        <v>0.145932644599252</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -9498,7 +9498,7 @@
         <v>0.5048534394250001</v>
       </c>
       <c r="N143">
-        <v>0.00292951714022</v>
+        <v>0.00451218697048</v>
       </c>
       <c r="O143">
         <v>0.275416189691</v>
@@ -9519,7 +9519,7 @@
         <v>0.2</v>
       </c>
       <c r="U143">
-        <v>0.181729959876288</v>
+        <v>0.182363027808392</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9854,7 +9854,7 @@
         <v>0.397623934015</v>
       </c>
       <c r="N150">
-        <v>0.00226400320665</v>
+        <v>0.0038536334003</v>
       </c>
       <c r="O150">
         <v>0.0381897006143</v>
@@ -9875,7 +9875,7 @@
         <v>0.2</v>
       </c>
       <c r="U150">
-        <v>0.11901626318912</v>
+        <v>0.11965211526658</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9919,7 +9919,7 @@
         <v>0.442350426581</v>
       </c>
       <c r="N151">
-        <v>0.000518646714112</v>
+        <v>0.0008627617927969999</v>
       </c>
       <c r="O151">
         <v>0.250992808089</v>
@@ -9940,7 +9940,7 @@
         <v>0.2</v>
       </c>
       <c r="U151">
-        <v>0.1698240406002448</v>
+        <v>0.1699616866317188</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9981,7 +9981,7 @@
         <v>0.451409016198</v>
       </c>
       <c r="N152">
-        <v>0.00557547079941</v>
+        <v>0.008895071841479999</v>
       </c>
       <c r="O152">
         <v>0.210850178039</v>
@@ -10002,7 +10002,7 @@
         <v>0.2</v>
       </c>
       <c r="U152">
-        <v>0.165629962147764</v>
+        <v>0.166957802564592</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -10087,7 +10087,7 @@
         <v>0.398872037016</v>
       </c>
       <c r="N154">
-        <v>0.000392778284935</v>
+        <v>0.0006589227442139999</v>
       </c>
       <c r="O154">
         <v>0.391371432875</v>
@@ -10108,7 +10108,7 @@
         <v>0.2</v>
       </c>
       <c r="U154">
-        <v>0.189153740272774</v>
+        <v>0.1892601980564856</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -10131,7 +10131,7 @@
         <v>0.420206580758</v>
       </c>
       <c r="N155">
-        <v>0.000392778284935</v>
+        <v>0.0006589227442139999</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -10149,7 +10149,7 @@
         <v>0.2</v>
       </c>
       <c r="U155">
-        <v>0.115146362446174</v>
+        <v>0.1152528202298856</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -10237,7 +10237,7 @@
         <v>0.396366112653</v>
       </c>
       <c r="N157">
-        <v>0.00187823960598</v>
+        <v>0.0032093780924</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -10255,7 +10255,7 @@
         <v>0.2</v>
       </c>
       <c r="U157">
-        <v>0.110972453353592</v>
+        <v>0.11150490874816</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -10361,7 +10361,7 @@
         <v>0.391353679754</v>
       </c>
       <c r="N159">
-        <v>0.00654632015822</v>
+        <v>0.0110957179514</v>
       </c>
       <c r="O159">
         <v>0.385124304786</v>
@@ -10382,7 +10382,7 @@
         <v>0.2</v>
       </c>
       <c r="U159">
-        <v>0.204253026671888</v>
+        <v>0.20607278578916</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10426,7 +10426,7 @@
         <v>0.400782878087</v>
       </c>
       <c r="N160">
-        <v>0</v>
+        <v>0.0205800122474</v>
       </c>
       <c r="O160">
         <v>0.0452378240885</v>
@@ -10447,7 +10447,7 @@
         <v>0.2</v>
       </c>
       <c r="U160">
-        <v>0.2164283962775</v>
+        <v>0.22466040117646</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10491,7 +10491,7 @@
         <v>0.391027073487</v>
       </c>
       <c r="N161">
-        <v>0.00267440881872</v>
+        <v>0.00511658302688</v>
       </c>
       <c r="O161">
         <v>0.61525759222</v>
@@ -10512,7 +10512,7 @@
         <v>0.2</v>
       </c>
       <c r="U161">
-        <v>0.320260959010688</v>
+        <v>0.321237828693952</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10641,7 +10641,7 @@
         <v>0.3905096596099999</v>
       </c>
       <c r="N164">
-        <v>0.376916151434</v>
+        <v>0.403255901161</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0.2</v>
       </c>
       <c r="U164">
-        <v>0.2905982609164</v>
+        <v>0.3011341608072</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10682,7 +10682,7 @@
         <v>0.3905096596099999</v>
       </c>
       <c r="N165">
-        <v>0.376916151434</v>
+        <v>0.399361784964</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>0.2</v>
       </c>
       <c r="U165">
-        <v>0.2905982609164</v>
+        <v>0.2995765143284</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10723,7 +10723,7 @@
         <v>0.409708728286</v>
       </c>
       <c r="N166">
-        <v>0.006746045800689999</v>
+        <v>0.011482343606</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0.2</v>
       </c>
       <c r="U166">
-        <v>0.124701075146276</v>
+        <v>0.1265955942684</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10891,7 +10891,7 @@
         <v>0.397522955022</v>
       </c>
       <c r="N169">
-        <v>0.00268247393564</v>
+        <v>0.004820515557359999</v>
       </c>
       <c r="O169">
         <v>0.249425361547</v>
@@ -10912,7 +10912,7 @@
         <v>0.2</v>
       </c>
       <c r="U169">
-        <v>0.148854606805036</v>
+        <v>0.149709823453724</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10956,7 +10956,7 @@
         <v>0.405538683602</v>
       </c>
       <c r="N170">
-        <v>0.0032172049326</v>
+        <v>0.00551438558381</v>
       </c>
       <c r="O170">
         <v>0.0200092515894</v>
@@ -10977,7 +10977,7 @@
         <v>0.2</v>
       </c>
       <c r="U170">
-        <v>0.16241260313712</v>
+        <v>0.163331475397604</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -11021,7 +11021,7 @@
         <v>0.394957618312</v>
       </c>
       <c r="N171">
-        <v>0.000139505021663</v>
+        <v>0.00059917655434</v>
       </c>
       <c r="O171">
         <v>0.223966841812</v>
@@ -11042,7 +11042,7 @@
         <v>0.2</v>
       </c>
       <c r="U171">
-        <v>0.1649627738002652</v>
+        <v>0.165146642413336</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -11130,7 +11130,7 @@
         <v>0.426197409967</v>
       </c>
       <c r="N173">
-        <v>0</v>
+        <v>0.0380282916839</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0.2</v>
       </c>
       <c r="U173">
-        <v>0.14909168761</v>
+        <v>0.16430300428356</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -11257,7 +11257,7 @@
         <v>0.450661753296</v>
       </c>
       <c r="N175">
-        <v>0.000139505021663</v>
+        <v>0.000324863461394</v>
       </c>
       <c r="O175">
         <v>0.281779030448</v>
@@ -11278,7 +11278,7 @@
         <v>0.2</v>
       </c>
       <c r="U175">
-        <v>0.1906663380962652</v>
+        <v>0.1907404814721576</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11322,7 +11322,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N176">
-        <v>0.00267440881872</v>
+        <v>0.00632134348475</v>
       </c>
       <c r="O176">
         <v>0.492647137924</v>
@@ -11343,7 +11343,7 @@
         <v>0.2</v>
       </c>
       <c r="U176">
-        <v>0.377598120541688</v>
+        <v>0.3790568944081</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11387,7 +11387,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N177">
-        <v>0.008024454948749999</v>
+        <v>0.0146471071842</v>
       </c>
       <c r="O177">
         <v>0.431113310455</v>
@@ -11408,7 +11408,7 @@
         <v>0.2</v>
       </c>
       <c r="U177">
-        <v>0.3403334949219</v>
+        <v>0.34298255581608</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11431,7 +11431,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N178">
-        <v>0.44004833026</v>
+        <v>0.468641668632</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -11449,7 +11449,7 @@
         <v>0.2</v>
       </c>
       <c r="U178">
-        <v>0.4540182615334</v>
+        <v>0.4654555968822001</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11493,7 +11493,7 @@
         <v>0.508355055418</v>
       </c>
       <c r="N179">
-        <v>0.300857841156</v>
+        <v>0.347818765932</v>
       </c>
       <c r="O179">
         <v>0.385769764515</v>
@@ -11514,7 +11514,7 @@
         <v>0.2</v>
       </c>
       <c r="U179">
-        <v>0.3432904797878</v>
+        <v>0.3620748496982</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11534,7 +11534,7 @@
         <v>0.389994647147</v>
       </c>
       <c r="N180">
-        <v>0.00428838008907</v>
+        <v>0.00768272276834</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>0.2</v>
       </c>
       <c r="U180">
-        <v>0.225518524308828</v>
+        <v>0.226876261380536</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11596,7 +11596,7 @@
         <v>0.396006965846</v>
       </c>
       <c r="N181">
-        <v>0.000633151370824</v>
+        <v>0.00133347385738</v>
       </c>
       <c r="O181">
         <v>0.267551779971</v>
@@ -11617,7 +11617,7 @@
         <v>0.2</v>
       </c>
       <c r="U181">
-        <v>0.2563639416801296</v>
+        <v>0.256644070674752</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11661,7 +11661,7 @@
         <v>0.387737539759</v>
       </c>
       <c r="N182">
-        <v>0.0018443451701</v>
+        <v>0.003029494322</v>
       </c>
       <c r="O182">
         <v>0.108733070129</v>
@@ -11682,7 +11682,7 @@
         <v>0.2</v>
       </c>
       <c r="U182">
-        <v>0.24583610288944</v>
+        <v>0.2463101625502</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11767,7 +11767,7 @@
         <v>0.416985035703</v>
       </c>
       <c r="N184">
-        <v>0.300857841156</v>
+        <v>0.379486380413</v>
       </c>
       <c r="O184">
         <v>0.305835212082</v>
@@ -11788,7 +11788,7 @@
         <v>0.2</v>
       </c>
       <c r="U184">
-        <v>0.2892997390806</v>
+        <v>0.3207511547834</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -11811,7 +11811,7 @@
         <v>0.39367560889</v>
       </c>
       <c r="N185">
-        <v>0.00307434795061</v>
+        <v>0.00576690567957</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0.2</v>
       </c>
       <c r="U185">
-        <v>0.104357414019444</v>
+        <v>0.105434437111028</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -11873,7 +11873,7 @@
         <v>0.387547506078</v>
       </c>
       <c r="N186">
-        <v>0.00216599752831</v>
+        <v>0.00380413999452</v>
       </c>
       <c r="O186">
         <v>0.237690545091</v>
@@ -11894,7 +11894,7 @@
         <v>0.2</v>
       </c>
       <c r="U186">
-        <v>0.150306562306324</v>
+        <v>0.150961819292808</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -11938,7 +11938,7 @@
         <v>0.402338808457</v>
       </c>
       <c r="N187">
-        <v>0.0018443451701</v>
+        <v>0.003029494322</v>
       </c>
       <c r="O187">
         <v>0.144152672741</v>
@@ -11959,7 +11959,7 @@
         <v>0.2</v>
       </c>
       <c r="U187">
-        <v>0.23343496627604</v>
+        <v>0.2339090259368</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -12044,7 +12044,7 @@
         <v>0.385350367796</v>
       </c>
       <c r="N189">
-        <v>0.0008531819724889999</v>
+        <v>0.0014951220519</v>
       </c>
       <c r="O189">
         <v>0.326453670473</v>
@@ -12065,7 +12065,7 @@
         <v>0.2</v>
       </c>
       <c r="U189">
-        <v>0.1670946335039956</v>
+        <v>0.16735140953576</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -12109,7 +12109,7 @@
         <v>0.392021367546</v>
       </c>
       <c r="N190">
-        <v>0.406931654011</v>
+        <v>0.429504123604</v>
       </c>
       <c r="O190">
         <v>0.340923760448</v>
@@ -12130,7 +12130,7 @@
         <v>0.2</v>
       </c>
       <c r="U190">
-        <v>0.3337542402644</v>
+        <v>0.3427832281016001</v>
       </c>
     </row>
     <row r="191" spans="1:21">
@@ -12218,7 +12218,7 @@
         <v>0.382932901286</v>
       </c>
       <c r="N192">
-        <v>0.293203371308</v>
+        <v>0.315091376937</v>
       </c>
       <c r="P192">
         <v>0</v>
@@ -12236,7 +12236,7 @@
         <v>0.2</v>
       </c>
       <c r="U192">
-        <v>0.2127215319153</v>
+        <v>0.2214767341669</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -12345,7 +12345,7 @@
         <v>0.218148108575</v>
       </c>
       <c r="N194">
-        <v>0.293203371308</v>
+        <v>0.315091376937</v>
       </c>
       <c r="O194">
         <v>0.341025574037</v>
@@ -12366,7 +12366,7 @@
         <v>0.2</v>
       </c>
       <c r="U194">
-        <v>0.2536154993084</v>
+        <v>0.26237070156</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -12410,7 +12410,7 @@
         <v>0.384646053792</v>
       </c>
       <c r="N195">
-        <v>0.000286725925773</v>
+        <v>0.000458062005931</v>
       </c>
       <c r="O195">
         <v>0.228842367977</v>
@@ -12431,7 +12431,7 @@
         <v>0.2</v>
       </c>
       <c r="U195">
-        <v>0.1472049277853092</v>
+        <v>0.1472734622173724</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -12475,7 +12475,7 @@
         <v>0.387941090206</v>
       </c>
       <c r="N196">
-        <v>0.000405418857701</v>
+        <v>0.0006802205421129999</v>
       </c>
       <c r="O196">
         <v>0.456268310438</v>
@@ -12496,7 +12496,7 @@
         <v>0.2</v>
       </c>
       <c r="U196">
-        <v>0.1933966007330804</v>
+        <v>0.1935065214068452</v>
       </c>
     </row>
     <row r="197" spans="1:21">
@@ -12540,7 +12540,7 @@
         <v>0.472422483507</v>
       </c>
       <c r="N197">
-        <v>0.336324445057</v>
+        <v>0.351249781061</v>
       </c>
       <c r="O197">
         <v>0.163462676291</v>
@@ -12561,7 +12561,7 @@
         <v>0.2</v>
       </c>
       <c r="U197">
-        <v>0.2824706586592</v>
+        <v>0.2884407930608</v>
       </c>
     </row>
     <row r="198" spans="1:21">
@@ -12602,7 +12602,7 @@
         <v>0.388088960197</v>
       </c>
       <c r="N198">
-        <v>1.84482362566e-05</v>
+        <v>3.1511752258e-05</v>
       </c>
       <c r="O198">
         <v>0.512064718095</v>
@@ -12623,7 +12623,7 @@
         <v>0.2</v>
       </c>
       <c r="U198">
-        <v>0.2044306680141026</v>
+        <v>0.2044358934205032</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -12664,7 +12664,7 @@
         <v>0.391251948786</v>
       </c>
       <c r="N199">
-        <v>0.00238841000401</v>
+        <v>0.00394523002685</v>
       </c>
       <c r="O199">
         <v>0.108652387663</v>
@@ -12685,7 +12685,7 @@
         <v>0.2</v>
       </c>
       <c r="U199">
-        <v>0.125328784352604</v>
+        <v>0.12595151236174</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -12708,7 +12708,7 @@
         <v>0.390991798883</v>
       </c>
       <c r="N200">
-        <v>0.000197330014827</v>
+        <v>0.000349755610796</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>0.2</v>
       </c>
       <c r="U200">
-        <v>0.1026698448437308</v>
+        <v>0.1027308150821184</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -12770,7 +12770,7 @@
         <v>0.389023058698</v>
       </c>
       <c r="N201">
-        <v>0.00195671340728</v>
+        <v>0.003185805054</v>
       </c>
       <c r="O201">
         <v>0.352851318351</v>
@@ -12791,7 +12791,7 @@
         <v>0.2</v>
       </c>
       <c r="U201">
-        <v>0.173550113833912</v>
+        <v>0.1740417504926</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -12832,7 +12832,7 @@
         <v>0.391702950787</v>
       </c>
       <c r="N202">
-        <v>0.000244105159154</v>
+        <v>0.000432231248746</v>
       </c>
       <c r="O202">
         <v>0.512064718095</v>
@@ -12853,7 +12853,7 @@
         <v>0.2</v>
       </c>
       <c r="U202">
-        <v>0.2052437289012616</v>
+        <v>0.2053189793370984</v>
       </c>
     </row>
     <row r="203" spans="1:21">
@@ -12876,7 +12876,7 @@
         <v>0.389502306145</v>
       </c>
       <c r="N203">
-        <v>0.000244105159154</v>
+        <v>0.000432231248746</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -12894,7 +12894,7 @@
         <v>0.2</v>
       </c>
       <c r="U203">
-        <v>0.1112234680146616</v>
+        <v>0.1112987184504984</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -13041,7 +13041,7 @@
         <v>0.442743638623</v>
       </c>
       <c r="N206">
-        <v>0.000217718077064</v>
+        <v>0.000378569682892</v>
       </c>
       <c r="O206">
         <v>0.299285844914</v>
@@ -13062,7 +13062,7 @@
         <v>0.2</v>
       </c>
       <c r="U206">
-        <v>0.1817183486602256</v>
+        <v>0.1817826893025568</v>
       </c>
     </row>
     <row r="207" spans="1:21">
@@ -13106,7 +13106,7 @@
         <v>0.385290641798</v>
       </c>
       <c r="N207">
-        <v>0.667545830573</v>
+        <v>0.8303430741310001</v>
       </c>
       <c r="O207">
         <v>0.259985799886</v>
@@ -13127,7 +13127,7 @@
         <v>0.2</v>
       </c>
       <c r="U207">
-        <v>0.4204661736272</v>
+        <v>0.4855850710504001</v>
       </c>
     </row>
     <row r="208" spans="1:21">
@@ -13233,7 +13233,7 @@
         <v>0.470700602112</v>
       </c>
       <c r="N209">
-        <v>0.000244105159154</v>
+        <v>0.000432231248746</v>
       </c>
       <c r="O209">
         <v>0.188205299224</v>
@@ -13254,7 +13254,7 @@
         <v>0.2</v>
       </c>
       <c r="U209">
-        <v>0.1739369987136616</v>
+        <v>0.1740122491494984</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -13339,7 +13339,7 @@
         <v>0.385499222662</v>
       </c>
       <c r="N211">
-        <v>0.667545830573</v>
+        <v>0.8303430741310001</v>
       </c>
       <c r="O211">
         <v>0.248179265682</v>
@@ -13360,7 +13360,7 @@
         <v>0.2</v>
       </c>
       <c r="U211">
-        <v>0.4269793946200001</v>
+        <v>0.4920982920432</v>
       </c>
     </row>
     <row r="212" spans="1:21">
@@ -13404,7 +13404,7 @@
         <v>0.24095622246</v>
       </c>
       <c r="N212">
-        <v>0.000608097958922</v>
+        <v>0.000998183356238</v>
       </c>
       <c r="O212">
         <v>0.411269906157</v>
@@ -13425,7 +13425,7 @@
         <v>0.2</v>
       </c>
       <c r="U212">
-        <v>0.1599179985449688</v>
+        <v>0.1600740327038952</v>
       </c>
     </row>
     <row r="213" spans="1:21">
@@ -13469,7 +13469,7 @@
         <v>0.28377561517</v>
       </c>
       <c r="N213">
-        <v>0.000219063347859</v>
+        <v>0.000357268421951</v>
       </c>
       <c r="O213">
         <v>0.334899967687</v>
@@ -13490,7 +13490,7 @@
         <v>0.2</v>
       </c>
       <c r="U213">
-        <v>0.1530522755485436</v>
+        <v>0.1531075575781804</v>
       </c>
     </row>
     <row r="214" spans="1:21">
@@ -13575,7 +13575,7 @@
         <v>0.5609578660019999</v>
       </c>
       <c r="N215">
-        <v>0.000244105159154</v>
+        <v>0.000432231248746</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0.2</v>
       </c>
       <c r="U215">
-        <v>0.1543473916468616</v>
+        <v>0.1544226420826984</v>
       </c>
     </row>
     <row r="216" spans="1:21">
@@ -13637,7 +13637,7 @@
         <v>0.375194592392</v>
       </c>
       <c r="N216">
-        <v>0.401540833668</v>
+        <v>0.421167576302</v>
       </c>
       <c r="O216">
         <v>0.23960899484</v>
@@ -13658,7 +13658,7 @@
         <v>0.2</v>
       </c>
       <c r="U216">
-        <v>0.3256352272964</v>
+        <v>0.33348592435</v>
       </c>
     </row>
     <row r="217" spans="1:21">
@@ -13681,7 +13681,7 @@
         <v>0.196831925801</v>
       </c>
       <c r="N217">
-        <v>0</v>
+        <v>0.053791540194</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -13699,7 +13699,7 @@
         <v>0.2</v>
       </c>
       <c r="U217">
-        <v>0.0695116105508</v>
+        <v>0.0910282266284</v>
       </c>
     </row>
     <row r="218" spans="1:21">
@@ -13722,7 +13722,7 @@
         <v>0.0118253993712</v>
       </c>
       <c r="N218">
-        <v>0.385735960743</v>
+        <v>0.406260129156</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -13740,7 +13740,7 @@
         <v>0.2</v>
       </c>
       <c r="U218">
-        <v>0.18680468956204</v>
+        <v>0.19501435692724</v>
       </c>
     </row>
     <row r="219" spans="1:21">
@@ -13763,7 +13763,7 @@
         <v>0.009191595097290001</v>
       </c>
       <c r="N219">
-        <v>0.385735960743</v>
+        <v>0.391612653706</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0.2</v>
       </c>
       <c r="U219">
-        <v>0.186277928707258</v>
+        <v>0.188628605892458</v>
       </c>
     </row>
     <row r="220" spans="1:21">
@@ -13866,7 +13866,7 @@
         <v>0.157187077941</v>
       </c>
       <c r="N221">
-        <v>0.515858699876</v>
+        <v>0.459879201752</v>
       </c>
       <c r="O221">
         <v>0.391826328302</v>
@@ -13887,7 +13887,7 @@
         <v>0.2</v>
       </c>
       <c r="U221">
-        <v>0.340724435595</v>
+        <v>0.3183326363454</v>
       </c>
     </row>
     <row r="222" spans="1:21">
@@ -13993,7 +13993,7 @@
         <v>0.252042807052</v>
       </c>
       <c r="N223">
-        <v>0.515858699876</v>
+        <v>0.459879201752</v>
       </c>
       <c r="O223">
         <v>0.433623431623</v>
@@ -14014,7 +14014,7 @@
         <v>0.2</v>
       </c>
       <c r="U223">
-        <v>0.36248805108676</v>
+        <v>0.34009625183716</v>
       </c>
     </row>
     <row r="224" spans="1:21">
@@ -14188,7 +14188,7 @@
         <v>0.195279672469</v>
       </c>
       <c r="N226">
-        <v>0.515858699876</v>
+        <v>0.459879201752</v>
       </c>
       <c r="O226">
         <v>0.434140823945</v>
@@ -14209,7 +14209,7 @@
         <v>0.2</v>
       </c>
       <c r="U226">
-        <v>0.35123890263456</v>
+        <v>0.32884710338496</v>
       </c>
     </row>
     <row r="227" spans="1:21">
@@ -14318,7 +14318,7 @@
         <v>0.00884881145511</v>
       </c>
       <c r="N228">
-        <v>0.00183565046549</v>
+        <v>0.00305684112562</v>
       </c>
       <c r="O228">
         <v>0.314037673333</v>
@@ -14339,7 +14339,7 @@
         <v>0.2</v>
       </c>
       <c r="U228">
-        <v>0.081712448037118</v>
+        <v>0.08220092430117</v>
       </c>
     </row>
     <row r="229" spans="1:21">
@@ -14383,7 +14383,7 @@
         <v>0.242159096174</v>
       </c>
       <c r="N229">
-        <v>0.607894847473</v>
+        <v>0.607017803585</v>
       </c>
       <c r="O229">
         <v>0.79370415507</v>
@@ -14404,7 +14404,7 @@
         <v>0.2</v>
       </c>
       <c r="U229">
-        <v>0.4722584694536001</v>
+        <v>0.4719076518984</v>
       </c>
     </row>
     <row r="230" spans="1:21">
@@ -14513,7 +14513,7 @@
         <v>0.380100379617</v>
       </c>
       <c r="N231">
-        <v>0.00119684701411</v>
+        <v>0.00166377561119</v>
       </c>
       <c r="O231">
         <v>0.275735017266</v>
@@ -14534,7 +14534,7 @@
         <v>0.2</v>
       </c>
       <c r="U231">
-        <v>0.150657141583604</v>
+        <v>0.150843913022436</v>
       </c>
     </row>
     <row r="232" spans="1:21">
@@ -14838,7 +14838,7 @@
         <v>0.6062761588719999</v>
       </c>
       <c r="N236">
-        <v>0.00124205344511</v>
+        <v>0.00166377561119</v>
       </c>
       <c r="O236">
         <v>0.342355874221</v>
@@ -14859,7 +14859,7 @@
         <v>0.2</v>
       </c>
       <c r="U236">
-        <v>0.213456324466244</v>
+        <v>0.213625013332676</v>
       </c>
     </row>
     <row r="237" spans="1:21">
@@ -14882,7 +14882,7 @@
         <v>0.5573300109130001</v>
       </c>
       <c r="N237">
-        <v>0.00124205344511</v>
+        <v>0.00166377561119</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -14900,7 +14900,7 @@
         <v>0.2</v>
       </c>
       <c r="U237">
-        <v>0.135195920030244</v>
+        <v>0.135364608896676</v>
       </c>
     </row>
     <row r="238" spans="1:21">

--- a/Outputs/YD/PCS.xlsx
+++ b/Outputs/YD/PCS.xlsx
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0386876577056</v>
+        <v>0.178766471713</v>
       </c>
       <c r="M2">
         <v>0.391155777781</v>
       </c>
       <c r="N2">
-        <v>0.653082764965</v>
+        <v>0.662578809818</v>
       </c>
       <c r="O2">
         <v>0.404423897695</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U2">
-        <v>0.42808657262232</v>
+        <v>0.40923123925175</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09265049005879999</v>
+        <v>0.371862061634</v>
       </c>
       <c r="M3">
         <v>0.8762247056669999</v>
@@ -1121,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S3">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U3">
-        <v>0.28820418380336</v>
+        <v>0.430058122648</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0220621517649</v>
+        <v>0.305516762344</v>
       </c>
       <c r="M4">
         <v>0.9343959604809999</v>
@@ -1162,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U4">
-        <v>0.19129162244918</v>
+        <v>0.30997818070625</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09265049005879999</v>
+        <v>0.371862061634</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U5">
-        <v>0.21853009801176</v>
+        <v>0.3429655154085</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.147604587652</v>
+        <v>0.411853591156</v>
       </c>
       <c r="M6">
         <v>0.9111428855329999</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U6">
-        <v>0.211749494637</v>
+        <v>0.33074911917225</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1273,31 +1273,31 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.228797440634</v>
+        <v>0.143774847776</v>
       </c>
       <c r="M7">
         <v>0.396508268247</v>
       </c>
       <c r="N7">
-        <v>0.0299812321328</v>
+        <v>0.0881121604324</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U7">
-        <v>0.13705363462932</v>
+        <v>0.15709881911385</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.137114447031</v>
       </c>
       <c r="M8">
         <v>0.758380462863</v>
@@ -1326,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U8">
-        <v>0.1516760925726</v>
+        <v>0.2238737274735</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09265049005879999</v>
+        <v>0.371862061634</v>
       </c>
       <c r="M9">
         <v>0.48423283642</v>
@@ -1367,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T9">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U9">
-        <v>0.11537666529576</v>
+        <v>0.2140237245135</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.164230093593</v>
+        <v>0.285103300524</v>
       </c>
       <c r="M10">
         <v>0.444225825768</v>
       </c>
       <c r="N10">
-        <v>0.26176512699</v>
+        <v>0.240276028182</v>
       </c>
       <c r="O10">
         <v>0.310934087804</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S10">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U10">
-        <v>0.288584052229</v>
+        <v>0.3201348105695</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09265049005879999</v>
+        <v>0.371862061634</v>
       </c>
       <c r="M11">
         <v>0.622144428353</v>
       </c>
       <c r="N11">
-        <v>0.279650042766</v>
+        <v>0.368597688831</v>
       </c>
       <c r="O11">
         <v>0.633787665265</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S11">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U11">
-        <v>0.38157653384176</v>
+        <v>0.49909796102075</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.12590150194</v>
+        <v>0.118361480372</v>
       </c>
       <c r="M12">
         <v>0.392137285779</v>
       </c>
       <c r="N12">
-        <v>0.6732022110410001</v>
+        <v>0.72140073475</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1562,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U12">
-        <v>0.5728886419602</v>
+        <v>0.55797487522525</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M13">
         <v>0.421735315021</v>
       </c>
       <c r="N13">
-        <v>0.00048176206004</v>
+        <v>0.00283486865481</v>
       </c>
       <c r="O13">
         <v>0.267076892183</v>
@@ -1627,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S13">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U13">
-        <v>0.178466883314016</v>
+        <v>0.2858730491339525</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1677,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M14">
         <v>0.408801188511</v>
       </c>
       <c r="N14">
-        <v>0.000945542838036</v>
+        <v>0.00551774267475</v>
       </c>
       <c r="O14">
         <v>0.248555783857</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S14">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U14">
-        <v>0.1723613486580144</v>
+        <v>0.2786799589299375</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.147604587652</v>
+        <v>0.411853591156</v>
       </c>
       <c r="M15">
         <v>0.515570544302</v>
       </c>
       <c r="N15">
-        <v>0.00107994025375</v>
+        <v>0.00634663499569</v>
       </c>
       <c r="O15">
         <v>0.279403380057</v>
@@ -1757,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S15">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U15">
-        <v>0.1889476785037</v>
+        <v>0.3032935376276725</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M16">
         <v>0.392137285779</v>
       </c>
       <c r="N16">
-        <v>0.000412948042333</v>
+        <v>0.00252293680648</v>
       </c>
       <c r="O16">
         <v>0.312665687207</v>
@@ -1822,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S16">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T16">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U16">
-        <v>0.1816375108633332</v>
+        <v>0.28979275761737</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09265049005879999</v>
+        <v>0.371862061634</v>
       </c>
       <c r="M17">
         <v>0.755191595783</v>
@@ -1884,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S17">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U17">
-        <v>0.20377778278896</v>
+        <v>0.32452512138</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.132171527262</v>
+        <v>0.296990971211</v>
       </c>
       <c r="M18">
         <v>0.7795237229719999</v>
       </c>
       <c r="N18">
-        <v>0.009916652517520001</v>
+        <v>0.059099602592</v>
       </c>
       <c r="O18">
         <v>0.244191246644</v>
@@ -1949,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S18">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T18">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U18">
-        <v>0.235143960382608</v>
+        <v>0.34495138585475</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09265049005879999</v>
+        <v>0.371862061634</v>
       </c>
       <c r="M19">
         <v>0.658698490404</v>
       </c>
       <c r="N19">
-        <v>0.0045029794587</v>
+        <v>0.027685319152</v>
       </c>
       <c r="O19">
         <v>0.7002909349959999</v>
@@ -2014,19 +2014,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S19">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T19">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U19">
-        <v>0.29212917487524</v>
+        <v>0.4396342015465</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.164230093593</v>
+        <v>0.285103300524</v>
       </c>
       <c r="M20">
         <v>0.392137285779</v>
       </c>
       <c r="N20">
-        <v>0.00226271872039</v>
+        <v>0.0139532720207</v>
       </c>
       <c r="O20">
         <v>0.576191142141</v>
@@ -2079,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S20">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T20">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U20">
-        <v>0.227416791790756</v>
+        <v>0.316846250116175</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.138414780001</v>
+        <v>0.107255992285</v>
       </c>
       <c r="M21">
         <v>0.392137285779</v>
       </c>
       <c r="N21">
-        <v>0.006155788518930001</v>
+        <v>0.03677227579159999</v>
       </c>
       <c r="O21">
         <v>0.420248071689</v>
@@ -2144,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S21">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U21">
-        <v>0.192622342901372</v>
+        <v>0.23910340638615</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2194,13 +2194,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.147604587652</v>
+        <v>0.411853591156</v>
       </c>
       <c r="M22">
         <v>0.501035738055</v>
       </c>
       <c r="N22">
-        <v>0.000500441836439</v>
+        <v>0.00322687024691</v>
       </c>
       <c r="O22">
         <v>0.331826812397</v>
@@ -2209,19 +2209,19 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U22">
-        <v>0.1962936043553756</v>
+        <v>0.3119857529637275</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2259,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M23">
         <v>0.392137285779</v>
       </c>
       <c r="N23">
-        <v>0.000564695251746</v>
+        <v>0.0034302125444</v>
       </c>
       <c r="O23">
         <v>0.299204555813</v>
@@ -2274,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S23">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U23">
-        <v>0.1790059834682984</v>
+        <v>0.28665429370335</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M24">
         <v>0.392137285779</v>
       </c>
       <c r="N24">
-        <v>0.0323562919051</v>
+        <v>0.0905644432832</v>
       </c>
       <c r="O24">
         <v>0.10693116172</v>
@@ -2339,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S24">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T24">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U24">
-        <v>0.15326794331104</v>
+        <v>0.2603695028648</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2389,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M25">
         <v>0.392941792532</v>
       </c>
       <c r="N25">
-        <v>0.00226271872039</v>
+        <v>0.0139532720207</v>
       </c>
       <c r="O25">
         <v>0.424803269254</v>
@@ -2404,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S25">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T25">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U25">
-        <v>0.204965836894556</v>
+        <v>0.320885863620925</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M26">
         <v>0.392137285779</v>
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S26">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T26">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U26">
-        <v>0.118939194205</v>
+        <v>0.210995601614</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2474,31 +2474,31 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.150928058061</v>
+        <v>0.09615050419849999</v>
       </c>
       <c r="M27">
         <v>0.392137285779</v>
       </c>
       <c r="N27">
-        <v>0.007775013377640001</v>
+        <v>0.0462234712113</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S27">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U27">
-        <v>0.111723074119056</v>
+        <v>0.1336278152972</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.138414780001</v>
+        <v>0.107255992285</v>
       </c>
       <c r="M28">
         <v>0.394383734865</v>
       </c>
       <c r="N28">
-        <v>0.345410891487</v>
+        <v>0.378843658414</v>
       </c>
       <c r="O28">
         <v>0.061119657476</v>
@@ -2551,19 +2551,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S28">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T28">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U28">
-        <v>0.2569479910632</v>
+        <v>0.23540076076</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M29">
         <v>0.392137285779</v>
@@ -2592,19 +2592,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S29">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U29">
-        <v>0.118939194205</v>
+        <v>0.210995601614</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.176743371654</v>
+        <v>0.273997812438</v>
       </c>
       <c r="M30">
         <v>0.392137285779</v>
       </c>
       <c r="N30">
-        <v>0.00406239273002</v>
+        <v>0.0141848127773</v>
       </c>
       <c r="O30">
         <v>0.105704788235</v>
@@ -2657,19 +2657,19 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S30">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U30">
-        <v>0.136542046225608</v>
+        <v>0.196506174807325</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2707,13 +2707,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.150928058061</v>
+        <v>0.09615050419849999</v>
       </c>
       <c r="M31">
         <v>0.392137285779</v>
       </c>
       <c r="N31">
-        <v>0.007845876115819999</v>
+        <v>0.0466301338884</v>
       </c>
       <c r="O31">
         <v>0.483305901295</v>
@@ -2722,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S31">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U31">
-        <v>0.208412599473328</v>
+        <v>0.254555956290225</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M32">
         <v>0.392137285779</v>
       </c>
       <c r="N32">
-        <v>0.00129076395978</v>
+        <v>0.007798649870300001</v>
       </c>
       <c r="O32">
         <v>0.0414438934131</v>
@@ -2787,19 +2787,19 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S32">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T32">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U32">
-        <v>0.127744278471532</v>
+        <v>0.22330623743485</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M33">
         <v>0.392137285779</v>
@@ -2828,19 +2828,19 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T33">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U33">
-        <v>0.118939194205</v>
+        <v>0.210995601614</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.129613499213</v>
+        <v>0.249524538915</v>
       </c>
       <c r="M34">
         <v>0.392137285779</v>
@@ -2890,19 +2890,19 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S34">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U34">
-        <v>0.1286624734458</v>
+        <v>0.19080585173275</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2919,31 +2919,31 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M35">
         <v>0.392137285779</v>
       </c>
       <c r="N35">
-        <v>0.00129076395978</v>
+        <v>0.007798649870300001</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S35">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U35">
-        <v>0.119455499788912</v>
+        <v>0.212945264081575</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M36">
         <v>0.392137285779</v>
@@ -2972,19 +2972,19 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S36">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U36">
-        <v>0.118939194205</v>
+        <v>0.210995601614</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3022,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0.202558685246</v>
+        <v>0.451845120677</v>
       </c>
       <c r="M37">
         <v>0.392137285779</v>
       </c>
       <c r="N37">
-        <v>0.00120291198103</v>
+        <v>0.007507133420499999</v>
       </c>
       <c r="O37">
         <v>0.791790828017</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S37">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U37">
-        <v>0.277778524600812</v>
+        <v>0.410820091973375</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3087,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.129613499213</v>
+        <v>0.249524538915</v>
       </c>
       <c r="M38">
         <v>0.437636443879</v>
       </c>
       <c r="N38">
-        <v>0.00229943888783</v>
+        <v>0.0131471076899</v>
       </c>
       <c r="O38">
         <v>0.334608805891</v>
@@ -3102,19 +3102,19 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S38">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U38">
-        <v>0.181291525351732</v>
+        <v>0.258729224093725</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.14558935561</v>
+        <v>0.179521032467</v>
       </c>
       <c r="M39">
         <v>0.586119517941</v>
       </c>
       <c r="N39">
-        <v>0.560672139662</v>
+        <v>0.571894578622</v>
       </c>
       <c r="O39">
         <v>0.732677474531</v>
@@ -3167,19 +3167,19 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S39">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T39">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U39">
-        <v>0.5171461254812</v>
+        <v>0.51755315089025</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3217,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0.171692564465</v>
+        <v>0.222119880787</v>
       </c>
       <c r="M40">
         <v>0.755362173771</v>
       </c>
       <c r="N40">
-        <v>0.0112344280144</v>
+        <v>0.0644473831929</v>
       </c>
       <c r="O40">
         <v>0.193996507346</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S40">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T40">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U40">
-        <v>0.22870402032216</v>
+        <v>0.308981486274225</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3282,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.112730459822</v>
+        <v>0.136035904023</v>
       </c>
       <c r="M41">
         <v>0.706151529597</v>
       </c>
       <c r="N41">
-        <v>0.00677580102801</v>
+        <v>0.037496453387</v>
       </c>
       <c r="O41">
         <v>0.0714184639548</v>
@@ -3297,19 +3297,19 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S41">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T41">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U41">
-        <v>0.180770411085964</v>
+        <v>0.23777558774045</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.171692564465</v>
+        <v>0.222119880787</v>
       </c>
       <c r="M42">
         <v>0.665028807403</v>
@@ -3362,19 +3362,19 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S42">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U42">
-        <v>0.18066763894002</v>
+        <v>0.238441377755525</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0.169194905495</v>
+        <v>0.203853570512</v>
       </c>
       <c r="M43">
         <v>0.423398148368</v>
       </c>
       <c r="N43">
-        <v>0.00515789871492</v>
+        <v>0.0301421016362</v>
       </c>
       <c r="O43">
         <v>0.362607173209</v>
@@ -3427,19 +3427,19 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S43">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T43">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U43">
-        <v>0.193103204900368</v>
+        <v>0.2550002484313</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0.124374574367</v>
+        <v>0.133044455652</v>
       </c>
       <c r="M44">
         <v>0.392201336143</v>
       </c>
       <c r="N44">
-        <v>0.006245267281770001</v>
+        <v>0.0381234034892</v>
       </c>
       <c r="O44">
         <v>0.419450211747</v>
@@ -3492,19 +3492,19 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S44">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T44">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U44">
-        <v>0.189703331364108</v>
+        <v>0.2457048517578</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.056668313181</v>
+        <v>0.0472039571523</v>
       </c>
       <c r="M45">
         <v>0.392137285779</v>
@@ -3533,19 +3533,19 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S45">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U45">
-        <v>0.08976111979200001</v>
+        <v>0.109835310732825</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.171692564465</v>
+        <v>0.222119880787</v>
       </c>
       <c r="M46">
         <v>0.393856390637</v>
@@ -3598,19 +3598,19 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S46">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T46">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U46">
-        <v>0.6517034418481999</v>
+        <v>0.57723613139075</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.112730459822</v>
+        <v>0.136035904023</v>
       </c>
       <c r="M47">
         <v>0.544832856537</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S47">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T47">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U47">
-        <v>0.304699330693</v>
+        <v>0.3867005244165</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3713,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.171692564465</v>
+        <v>0.222119880787</v>
       </c>
       <c r="M48">
         <v>0.393856390637</v>
       </c>
       <c r="N48">
-        <v>0.560672139662</v>
+        <v>0.571894578622</v>
       </c>
       <c r="O48">
         <v>0.22800864916</v>
@@ -3728,19 +3728,19 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S48">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T48">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U48">
-        <v>0.3829803767172</v>
+        <v>0.3539698748015</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0.056668313181</v>
+        <v>0.0472039571523</v>
       </c>
       <c r="M49">
         <v>0.423298836507</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S49">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U49">
-        <v>0.1545742791474</v>
+        <v>0.190851759927075</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3843,13 +3843,13 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.171692564465</v>
+        <v>0.222119880787</v>
       </c>
       <c r="M50">
         <v>0.420892331623</v>
       </c>
       <c r="N50">
-        <v>0.648547728744</v>
+        <v>0.623153103979</v>
       </c>
       <c r="O50">
         <v>0.0832985339262</v>
@@ -3858,19 +3858,19 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S50">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T50">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U50">
-        <v>0.39459577750044</v>
+        <v>0.3373659625788</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3887,31 +3887,31 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0.056668313181</v>
+        <v>0.0472039571523</v>
       </c>
       <c r="M51">
         <v>0.404472991394</v>
       </c>
       <c r="N51">
-        <v>0.00285167610854</v>
+        <v>0.0163127380576</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S51">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U51">
-        <v>0.09336893135841601</v>
+        <v>0.116997421650975</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0.0994262626015</v>
+        <v>0.186694627731</v>
       </c>
       <c r="M52">
         <v>0.392265386507</v>
@@ -3964,19 +3964,19 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S52">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T52">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U52">
-        <v>0.1664504676919</v>
+        <v>0.22988017589725</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4014,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0.0994262626015</v>
+        <v>0.186694627731</v>
       </c>
       <c r="M53">
         <v>0.392265386507</v>
       </c>
       <c r="N53">
-        <v>0.00186813964242</v>
+        <v>0.0109435010972</v>
       </c>
       <c r="O53">
         <v>0.376055595598</v>
@@ -4029,19 +4029,19 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S53">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T53">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U53">
-        <v>0.174296704798268</v>
+        <v>0.2414897777333</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4079,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.11109783252</v>
+        <v>0.151491431379</v>
       </c>
       <c r="M54">
         <v>0.391129977807</v>
       </c>
       <c r="N54">
-        <v>0.000422065282097</v>
+        <v>0.00254646056763</v>
       </c>
       <c r="O54">
         <v>0.409194573835</v>
@@ -4094,19 +4094,19 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S54">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T54">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U54">
-        <v>0.1824533029452388</v>
+        <v>0.2385906108971575</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.122065033055</v>
+        <v>0.179380296989</v>
       </c>
       <c r="M55">
         <v>0.393807138439</v>
       </c>
       <c r="N55">
-        <v>0.00285167610854</v>
+        <v>0.0163127380576</v>
       </c>
       <c r="O55">
         <v>0.217071692646</v>
@@ -4159,19 +4159,19 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S55">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T55">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U55">
-        <v>0.147729443271416</v>
+        <v>0.2016429665329</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0.171692564465</v>
+        <v>0.222119880787</v>
       </c>
       <c r="M56">
         <v>0.397933986065</v>
@@ -4224,19 +4224,19 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S56">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U56">
-        <v>0.1449181347454</v>
+        <v>0.19375449751225</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.0994262626015</v>
+        <v>0.186694627731</v>
       </c>
       <c r="M57">
         <v>0.392798213781</v>
@@ -4289,19 +4289,19 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S57">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T57">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U57">
-        <v>0.1919612523017</v>
+        <v>0.2617686566595</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4336,13 +4336,13 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0.056668313181</v>
+        <v>0.0472039571523</v>
       </c>
       <c r="M58">
         <v>0.5752761513579999</v>
       </c>
       <c r="N58">
-        <v>2.13266282143e-05</v>
+        <v>0.000135916610745</v>
       </c>
       <c r="O58">
         <v>0.284540163732</v>
@@ -4351,19 +4351,19 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S58">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T58">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U58">
-        <v>0.1833054563054857</v>
+        <v>0.2267890472132612</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4401,13 +4401,13 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0.0552183341801</v>
+        <v>0.0485779422057</v>
       </c>
       <c r="M59">
         <v>0.540588496179</v>
       </c>
       <c r="N59">
-        <v>0.0022554603908</v>
+        <v>0.0121566274644</v>
       </c>
       <c r="O59">
         <v>0.274899910364</v>
@@ -4416,19 +4416,19 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S59">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T59">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U59">
-        <v>0.17504353230094</v>
+        <v>0.219055744053275</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4466,13 +4466,13 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0.122065033055</v>
+        <v>0.179380296989</v>
       </c>
       <c r="M60">
         <v>0.451043300452</v>
       </c>
       <c r="N60">
-        <v>0.00350334458224</v>
+        <v>0.0193015902557</v>
       </c>
       <c r="O60">
         <v>0.0612956220925</v>
@@ -4481,19 +4481,19 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S60">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T60">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U60">
-        <v>0.128282128952796</v>
+        <v>0.1777552024473</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4531,13 +4531,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M61">
         <v>0.392137285779</v>
       </c>
       <c r="N61">
-        <v>0.00515789871492</v>
+        <v>0.0301421016362</v>
       </c>
       <c r="O61">
         <v>0.134621384081</v>
@@ -4546,19 +4546,19 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S61">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U61">
-        <v>0.144907244043768</v>
+        <v>0.2171143520803</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M62">
         <v>0.394404195966</v>
@@ -4611,19 +4611,19 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S62">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T62">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U62">
-        <v>0.1929623654194</v>
+        <v>0.27222667774825</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4661,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M63">
         <v>0.392137285779</v>
       </c>
       <c r="N63">
-        <v>0.0136110596578</v>
+        <v>0.0795806244151</v>
       </c>
       <c r="O63">
         <v>0.118388071904</v>
@@ -4676,19 +4676,19 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S63">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T63">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U63">
-        <v>0.14504184598552</v>
+        <v>0.225415654730775</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4705,31 +4705,31 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M64">
         <v>0.392137285779</v>
       </c>
       <c r="N64">
-        <v>0.00617284469929</v>
+        <v>0.0359959007935</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S64">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T64">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U64">
-        <v>0.118388945621316</v>
+        <v>0.184922455849375</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0.056668313181</v>
+        <v>0.0472039571523</v>
       </c>
       <c r="M65">
         <v>0.5764553403779999</v>
@@ -4782,19 +4782,19 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S65">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T65">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U65">
-        <v>0.1948309981258</v>
+        <v>0.241172658650075</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4832,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0.175802852951</v>
+        <v>0.253733199197</v>
       </c>
       <c r="M66">
         <v>0.523437230226</v>
       </c>
       <c r="N66">
-        <v>2.13266282143e-05</v>
+        <v>0.000135916610745</v>
       </c>
       <c r="O66">
         <v>0.348649106576</v>
@@ -4847,19 +4847,19 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S66">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T66">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U66">
-        <v>0.2095863686018857</v>
+        <v>0.2814888631524363</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M67">
         <v>0.390792336596</v>
@@ -4912,19 +4912,19 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S67">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T67">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U67">
-        <v>0.1626833168024</v>
+        <v>0.234377866977</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4941,31 +4941,31 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0.0994262626015</v>
+        <v>0.186694627731</v>
       </c>
       <c r="M68">
         <v>0.392265386507</v>
       </c>
       <c r="N68">
-        <v>0.385621535845</v>
+        <v>0.40825395119</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S68">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T68">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U68">
-        <v>0.2525869441597</v>
+        <v>0.246803491357</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0.056668313181</v>
+        <v>0.0472039571523</v>
       </c>
       <c r="M69">
         <v>0.575559899114</v>
@@ -4994,19 +4994,19 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S69">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T69">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U69">
-        <v>0.126445642459</v>
+        <v>0.155690964066575</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.155115577684</v>
+        <v>0.213922435926</v>
       </c>
       <c r="M70">
         <v>0.394134530127</v>
@@ -5059,19 +5059,19 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S70">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T70">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U70">
-        <v>0.1727853333492</v>
+        <v>0.230683381247</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.056668313181</v>
+        <v>0.0472039571523</v>
       </c>
       <c r="M71">
         <v>0.57203468547</v>
@@ -5124,19 +5124,19 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S71">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U71">
-        <v>0.1767570195086</v>
+        <v>0.218580185378575</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5174,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.0994262626015</v>
+        <v>0.186694627731</v>
       </c>
       <c r="M72">
         <v>0.391129977807</v>
       </c>
       <c r="N72">
-        <v>0.00177514452992</v>
+        <v>0.0103880770598</v>
       </c>
       <c r="O72">
         <v>0.3829727723569999</v>
@@ -5189,19 +5189,19 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S72">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T72">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U72">
-        <v>0.175415860365068</v>
+        <v>0.2427963637387</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5239,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M73">
         <v>0.390792336596</v>
       </c>
       <c r="N73">
-        <v>0.000897995719253</v>
+        <v>0.00526676140912</v>
       </c>
       <c r="O73">
         <v>0.047049403795</v>
@@ -5254,19 +5254,19 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S73">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T73">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U73">
-        <v>0.1254198969517012</v>
+        <v>0.18866628465628</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5304,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M74">
         <v>0.390792336596</v>
       </c>
       <c r="N74">
-        <v>0.000672744560456</v>
+        <v>0.00396220120133</v>
       </c>
       <c r="O74">
         <v>0.0775425734479</v>
@@ -5319,19 +5319,19 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S74">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T74">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U74">
-        <v>0.1314284304187624</v>
+        <v>0.1959634370175575</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M75">
         <v>0.389978484492</v>
@@ -5384,19 +5384,19 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S75">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T75">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U75">
-        <v>0.1287145930913</v>
+        <v>0.191916962338125</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.122769402439</v>
+        <v>0.116288235026</v>
       </c>
       <c r="M76">
         <v>0.3949941780390001</v>
@@ -5449,19 +5449,19 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S76">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U76">
-        <v>0.11099163946878</v>
+        <v>0.137119257482725</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.122769402439</v>
+        <v>0.116288235026</v>
       </c>
       <c r="M77">
         <v>0.389463472029</v>
@@ -5514,19 +5514,19 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S77">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T77">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U77">
-        <v>0.1587680998998</v>
+        <v>0.1968398330215</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5564,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M78">
         <v>0.389978484492</v>
       </c>
       <c r="N78">
-        <v>0.0005650745124650001</v>
+        <v>0.00330653149426</v>
       </c>
       <c r="O78">
         <v>0.0526910291855</v>
@@ -5579,19 +5579,19 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S78">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T78">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U78">
-        <v>0.126252283126286</v>
+        <v>0.18938317049919</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5629,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M79">
         <v>0.389447309373</v>
       </c>
       <c r="N79">
-        <v>0.28861768612</v>
+        <v>0.25621474549</v>
       </c>
       <c r="O79">
         <v>0.0393461492948</v>
@@ -5644,19 +5644,19 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S79">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T79">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U79">
-        <v>0.23869811676736</v>
+        <v>0.2491412102457</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M80">
         <v>0.389978484492</v>
@@ -5709,19 +5709,19 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S80">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T80">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U80">
-        <v>0.13486797583818</v>
+        <v>0.199608690771725</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0.0537683551792</v>
+        <v>0.0499519272591</v>
       </c>
       <c r="M81">
         <v>0.5078527301210001</v>
@@ -5774,19 +5774,19 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S81">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U81">
-        <v>0.15893716713364</v>
+        <v>0.197717351937025</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M82">
         <v>0.405765012695</v>
@@ -5839,19 +5839,19 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S82">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T82">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U82">
-        <v>0.167476174544</v>
+        <v>0.240368939154</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5889,13 +5889,13 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M83">
         <v>0.3905096596099999</v>
       </c>
       <c r="N83">
-        <v>0.0005650745124650001</v>
+        <v>0.00330653149426</v>
       </c>
       <c r="O83">
         <v>0.09840571447010001</v>
@@ -5904,19 +5904,19 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S83">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T83">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U83">
-        <v>0.135501455206806</v>
+        <v>0.20094463559984</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M84">
         <v>0.3905096596099999</v>
@@ -5966,19 +5966,19 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S84">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T84">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U84">
-        <v>0.13022470302482</v>
+        <v>0.193804599755025</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M85">
         <v>0.3905096596099999</v>
@@ -6007,19 +6007,19 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S85">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U85">
-        <v>0.1155942825078</v>
+        <v>0.17551657410875</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M86">
         <v>0.3905096596099999</v>
@@ -6069,19 +6069,19 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S86">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T86">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U86">
-        <v>0.1385081028764</v>
+        <v>0.2041588495695</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0.0537683551792</v>
+        <v>0.0499519272591</v>
       </c>
       <c r="M87">
         <v>0.485062846635</v>
       </c>
       <c r="N87">
-        <v>0.00416458591819</v>
+        <v>0.0239427957847</v>
       </c>
       <c r="O87">
         <v>0.25544068763</v>
@@ -6134,19 +6134,19 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S87">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T87">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U87">
-        <v>0.160520212256116</v>
+        <v>0.2035995643272</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6163,31 +6163,31 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0.0537683551792</v>
+        <v>0.0499519272591</v>
       </c>
       <c r="M88">
         <v>0.414471100541</v>
       </c>
       <c r="N88">
-        <v>0.03823308472759999</v>
+        <v>0.107013437866</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S88">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T88">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U88">
-        <v>0.10894112503508</v>
+        <v>0.142859116416525</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6225,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0.0994262626015</v>
+        <v>0.186694627731</v>
       </c>
       <c r="M89">
         <v>0.389994647147</v>
       </c>
       <c r="N89">
-        <v>0.00378681553169</v>
+        <v>0.0221859871227</v>
       </c>
       <c r="O89">
         <v>0.322596975578</v>
@@ -6240,19 +6240,19 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S89">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T89">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U89">
-        <v>0.163918303277976</v>
+        <v>0.230368059394675</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6290,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0.0994262626015</v>
+        <v>0.186694627731</v>
       </c>
       <c r="M90">
         <v>0.389994647147</v>
       </c>
       <c r="N90">
-        <v>0.396284960229</v>
+        <v>0.415512179282</v>
       </c>
       <c r="O90">
         <v>0.295212316254</v>
@@ -6305,19 +6305,19 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S90">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T90">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U90">
-        <v>0.3154406292921</v>
+        <v>0.3218534426035</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M91">
         <v>0.3905096596099999</v>
@@ -6370,19 +6370,19 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S91">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U91">
-        <v>0.166472645622</v>
+        <v>0.2391145280015</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6420,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0.171692564465</v>
+        <v>0.222119880787</v>
       </c>
       <c r="M92">
         <v>0.392093684804</v>
       </c>
       <c r="N92">
-        <v>0.646994499874</v>
+        <v>0.617729635058</v>
       </c>
       <c r="O92">
         <v>0.0476564433017</v>
@@ -6435,19 +6435,19 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S92">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T92">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U92">
-        <v>0.38108633846374</v>
+        <v>0.319899910987675</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M93">
         <v>0.3905096596099999</v>
@@ -6500,19 +6500,19 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S93">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T93">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U93">
-        <v>0.12990197316046</v>
+        <v>0.193401187424575</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M94">
         <v>0.3905096596099999</v>
@@ -6541,19 +6541,19 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S94">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T94">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U94">
-        <v>0.1155942825078</v>
+        <v>0.17551657410875</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6588,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.187461752929</v>
+        <v>0.311556636825</v>
       </c>
       <c r="M95">
         <v>0.3905096596099999</v>
       </c>
       <c r="N95">
-        <v>0.0005650745124650001</v>
+        <v>0.00330653149426</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -6603,19 +6603,19 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S95">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T95">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U95">
-        <v>0.115820312312786</v>
+        <v>0.176343206982315</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6653,13 +6653,13 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0.235370122837</v>
+        <v>0.356997820219</v>
       </c>
       <c r="M96">
         <v>0.391064617769</v>
       </c>
       <c r="N96">
-        <v>0.00454396713997</v>
+        <v>0.0254519547786</v>
       </c>
       <c r="O96">
         <v>0.142708072396</v>
@@ -6668,19 +6668,19 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S96">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T96">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U96">
-        <v>0.155646149456388</v>
+        <v>0.22905561629065</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0.168523423962</v>
+        <v>0.226195465436</v>
       </c>
       <c r="M97">
         <v>0.453952205685</v>
@@ -6709,19 +6709,19 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S97">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T97">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U97">
-        <v>0.1244951259294</v>
+        <v>0.17003691778025</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M98">
         <v>0.460471988224</v>
@@ -6750,19 +6750,19 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S98">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T98">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U98">
-        <v>0.1487500961936</v>
+        <v>0.21572774795925</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6779,31 +6779,31 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0.0537683551792</v>
+        <v>0.0499519272591</v>
       </c>
       <c r="M99">
         <v>0.571262551178</v>
       </c>
       <c r="N99">
-        <v>0.00121512012659</v>
+        <v>0.008633329031700001</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S99">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T99">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U99">
-        <v>0.125492229322076</v>
+        <v>0.1574619518672</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6841,13 +6841,13 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0.168523423962</v>
+        <v>0.226195465436</v>
       </c>
       <c r="M100">
         <v>0.469082406617</v>
       </c>
       <c r="N100">
-        <v>0.00121512012659</v>
+        <v>0.008633329031700001</v>
       </c>
       <c r="O100">
         <v>0.898396271633</v>
@@ -6856,19 +6856,19 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S100">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T100">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U100">
-        <v>0.307686468493036</v>
+        <v>0.4005768681794249</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6906,13 +6906,13 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0.05734296875519999</v>
+        <v>0.09334731386569999</v>
       </c>
       <c r="M101">
         <v>0.389994647147</v>
       </c>
       <c r="N101">
-        <v>0.009485265184930002</v>
+        <v>0.05709723993509999</v>
       </c>
       <c r="O101">
         <v>0.397931995612</v>
@@ -6921,19 +6921,19 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S101">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T101">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U101">
-        <v>0.172848028376812</v>
+        <v>0.23459279913995</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6971,13 +6971,13 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M102">
         <v>0.472866580181</v>
       </c>
       <c r="N102">
-        <v>0.000759763818915</v>
+        <v>0.00440328529109</v>
       </c>
       <c r="O102">
         <v>0.309228998354</v>
@@ -6986,19 +6986,19 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S102">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T102">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U102">
-        <v>0.213378719783366</v>
+        <v>0.2972344668597725</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -7036,13 +7036,13 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M103">
         <v>0.523661027315</v>
       </c>
       <c r="N103">
-        <v>3.68595611887e-06</v>
+        <v>2.44141958096e-05</v>
       </c>
       <c r="O103">
         <v>0.804888281679</v>
@@ -7051,19 +7051,19 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S103">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T103">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U103">
-        <v>0.3223670347300476</v>
+        <v>0.4327531817007024</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <v>0.0690145386742</v>
+        <v>0.058144117513</v>
       </c>
       <c r="M104">
         <v>0.391598777128</v>
@@ -7116,19 +7116,19 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S104">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T104">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U104">
-        <v>0.10371280285282</v>
+        <v>0.126923398275725</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -7163,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M105">
         <v>0.5796383869699999</v>
       </c>
       <c r="N105">
-        <v>0.0007699104288150001</v>
+        <v>0.00446227374118</v>
       </c>
       <c r="O105">
         <v>0.318426799488</v>
@@ -7178,19 +7178,19 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S105">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T105">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U105">
-        <v>0.236576700011926</v>
+        <v>0.326241615953045</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0.0994262626015</v>
+        <v>0.186694627731</v>
       </c>
       <c r="M106">
         <v>0.389994647147</v>
@@ -7240,19 +7240,19 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S106">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T106">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U106">
-        <v>0.1319859709489</v>
+        <v>0.1867995549685</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -7290,13 +7290,13 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M107">
         <v>0.5737852019290001</v>
       </c>
       <c r="N107">
-        <v>6.321900934949999e-05</v>
+        <v>0.000367577086905</v>
       </c>
       <c r="O107">
         <v>0.324730789505</v>
@@ -7305,19 +7305,19 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S107">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T107">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U107">
-        <v>0.2363841844393398</v>
+        <v>0.3253306430334763</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7355,13 +7355,13 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M108">
         <v>0.483599674743</v>
       </c>
       <c r="N108">
-        <v>0.00126073190268</v>
+        <v>0.008912305943819998</v>
       </c>
       <c r="O108">
         <v>0.342577751003</v>
@@ -7370,19 +7370,19 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S108">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T108">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U108">
-        <v>0.222395476459072</v>
+        <v>0.309382183825705</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7420,13 +7420,13 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0.09653171055160001</v>
+        <v>0.146640576171</v>
       </c>
       <c r="M109">
         <v>0.3900442229159999</v>
       </c>
       <c r="N109">
-        <v>0.396284960229</v>
+        <v>0.415512179282</v>
       </c>
       <c r="O109">
         <v>0.260012694041</v>
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S109">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T109">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U109">
-        <v>0.30783170959332</v>
+        <v>0.3030524181025</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7485,13 +7485,13 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M110">
         <v>0.571641516817</v>
       </c>
       <c r="N110">
-        <v>0.0366710062399</v>
+        <v>0.102641219658</v>
       </c>
       <c r="O110">
         <v>0.268618823757</v>
@@ -7500,19 +7500,19 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S110">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T110">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U110">
-        <v>0.23937616915956</v>
+        <v>0.33633514096125</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7529,31 +7529,31 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0.122769402439</v>
+        <v>0.116288235026</v>
       </c>
       <c r="M111">
         <v>0.389994647147</v>
       </c>
       <c r="N111">
-        <v>0.410509085946</v>
+        <v>0.42184585812</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S111">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T111">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U111">
-        <v>0.2667564442956</v>
+        <v>0.23203218507325</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7591,13 +7591,13 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>0.122769402439</v>
+        <v>0.116288235026</v>
       </c>
       <c r="M112">
         <v>0.389994647147</v>
       </c>
       <c r="N112">
-        <v>3.21342989389e-06</v>
+        <v>1.86023298167e-05</v>
       </c>
       <c r="O112">
         <v>0.07191497143839999</v>
@@ -7606,19 +7606,19 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S112">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T112">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U112">
-        <v>0.1169370895768376</v>
+        <v>0.1445541139853042</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7656,13 +7656,13 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0.122769402439</v>
+        <v>0.116288235026</v>
       </c>
       <c r="M113">
         <v>0.389994647147</v>
       </c>
       <c r="N113">
-        <v>0.000396495326177</v>
+        <v>0.00236059401118</v>
       </c>
       <c r="O113">
         <v>0.229783663414</v>
@@ -7671,19 +7671,19 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S113">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T113">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U113">
-        <v>0.1486681407304708</v>
+        <v>0.184606784899545</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>0.203023947592</v>
+        <v>0.25936361932</v>
       </c>
       <c r="M114">
         <v>0.390252153379</v>
@@ -7736,19 +7736,19 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S114">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T114">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U114">
-        <v>0.1926015968342</v>
+        <v>0.25483691397475</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7786,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0.122769402439</v>
+        <v>0.116288235026</v>
       </c>
       <c r="M115">
         <v>0.389994647147</v>
       </c>
       <c r="N115">
-        <v>3.79277162588e-06</v>
+        <v>2.85404829671e-05</v>
       </c>
       <c r="O115">
         <v>0.423161605187</v>
@@ -7801,19 +7801,19 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S115">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T115">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U115">
-        <v>0.1871866480632504</v>
+        <v>0.2323682569607418</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7827,31 +7827,31 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M116">
         <v>0.3905096596099999</v>
       </c>
       <c r="N116">
-        <v>0.00471234161895</v>
+        <v>0.0264939491671</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S116">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T116">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U116">
-        <v>0.13664256711838</v>
+        <v>0.204860653097525</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M117">
         <v>0.392328906432</v>
@@ -7904,19 +7904,19 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S117">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T117">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U117">
-        <v>0.2000045261182</v>
+        <v>0.279795785365</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7954,13 +7954,13 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M118">
         <v>0.450760623466</v>
       </c>
       <c r="N118">
-        <v>0.0268937337484</v>
+        <v>0.156828236899</v>
       </c>
       <c r="O118">
         <v>0.104645158514</v>
@@ -7969,19 +7969,19 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S118">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T118">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U118">
-        <v>0.17849434844416</v>
+        <v>0.278668255623</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0.283278492744</v>
+        <v>0.402439003613</v>
       </c>
       <c r="M119">
         <v>0.480886105394</v>
@@ -8010,19 +8010,19 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S119">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T119">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U119">
-        <v>0.1528329196276</v>
+        <v>0.22083127725175</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0.015259674909</v>
+        <v>0</v>
       </c>
       <c r="M120">
         <v>0.389994647147</v>
       </c>
       <c r="N120">
-        <v>0.00120553555805</v>
+        <v>0.00718526516094</v>
       </c>
       <c r="O120">
         <v>0.249896009266</v>
@@ -8075,19 +8075,19 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S120">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T120">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U120">
-        <v>0.13151228048762</v>
+        <v>0.161768980393485</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -8125,13 +8125,13 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>0.015259674909</v>
+        <v>0</v>
       </c>
       <c r="M121">
         <v>0.392654400123</v>
       </c>
       <c r="N121">
-        <v>0.000169694304701</v>
+        <v>0.00106030126215</v>
       </c>
       <c r="O121">
         <v>0.740261626343</v>
@@ -8140,19 +8140,19 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S121">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T121">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U121">
-        <v>0.2297030179968804</v>
+        <v>0.2834940819320375</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0.137925952412</v>
+        <v>0.177302283734</v>
       </c>
       <c r="M122">
         <v>0.390204400395</v>
       </c>
       <c r="N122">
-        <v>0.413707674631</v>
+        <v>0.433014493125</v>
       </c>
       <c r="O122">
         <v>0.289896846676</v>
@@ -8205,19 +8205,19 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S122">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T122">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U122">
-        <v>0.329088509749</v>
+        <v>0.3226045059825</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -8255,13 +8255,13 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0.08417108864700001</v>
+        <v>0.119158166221</v>
       </c>
       <c r="M123">
         <v>0.40034634226</v>
       </c>
       <c r="N123">
-        <v>0.00021795402502</v>
+        <v>0.00133547020956</v>
       </c>
       <c r="O123">
         <v>0.37287712019</v>
@@ -8270,19 +8270,19 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S123">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T123">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U123">
-        <v>0.171566091829408</v>
+        <v>0.22342927472014</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -8320,13 +8320,13 @@
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0.015259674909</v>
+        <v>0</v>
       </c>
       <c r="M124">
         <v>0.389994647147</v>
       </c>
       <c r="N124">
-        <v>0.0005252748622290001</v>
+        <v>0.00299090001425</v>
       </c>
       <c r="O124">
         <v>0.26657486795</v>
@@ -8335,19 +8335,19 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S124">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T124">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U124">
-        <v>0.1345759479460916</v>
+        <v>0.1648901037778125</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -8385,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0.219009083823</v>
+        <v>0.335259676102</v>
       </c>
       <c r="M125">
         <v>0.393223134624</v>
       </c>
       <c r="N125">
-        <v>0.0268937337484</v>
+        <v>0.156828236899</v>
       </c>
       <c r="O125">
         <v>0.0827802102047</v>
@@ -8400,19 +8400,19 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S125">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T125">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U125">
-        <v>0.1497599792297</v>
+        <v>0.242022814457425</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>0.153082502385</v>
+        <v>0.238316332442</v>
       </c>
       <c r="M126">
         <v>0.39022053526</v>
       </c>
       <c r="N126">
-        <v>0.00169364347327</v>
+        <v>0.00989222450818</v>
       </c>
       <c r="O126">
         <v>0.175887776069</v>
@@ -8465,19 +8465,19 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S126">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T126">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U126">
-        <v>0.144515620132108</v>
+        <v>0.203579217069795</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0.219009083823</v>
+        <v>0.335259676102</v>
       </c>
       <c r="M127">
         <v>0.3905096596099999</v>
@@ -8530,19 +8530,19 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S127">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U127">
-        <v>0.1572520817868</v>
+        <v>0.22562775030325</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>0.219009083823</v>
+        <v>0.335259676102</v>
       </c>
       <c r="M128">
         <v>0.3905096596099999</v>
@@ -8571,19 +8571,19 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S128">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T128">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U128">
-        <v>0.1219037486866</v>
+        <v>0.181442333928</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8621,13 +8621,13 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0.015259674909</v>
+        <v>0</v>
       </c>
       <c r="M129">
         <v>0.389994647147</v>
       </c>
       <c r="N129">
-        <v>0.000526844691806</v>
+        <v>0.00299516683298</v>
       </c>
       <c r="O129">
         <v>0.273877271468</v>
@@ -8636,19 +8636,19 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S129">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T129">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U129">
-        <v>0.1360370565815224</v>
+        <v>0.166716771361995</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8665,31 +8665,31 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>0.015259674909</v>
+        <v>0</v>
       </c>
       <c r="M130">
         <v>0.390086640516</v>
       </c>
       <c r="N130">
-        <v>2.76770972179e-06</v>
+        <v>1.60895410409e-05</v>
       </c>
       <c r="P130">
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S130">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T130">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U130">
-        <v>0.08107037016888871</v>
+        <v>0.09752568251426022</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8724,13 +8724,13 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0.015259674909</v>
+        <v>0</v>
       </c>
       <c r="M131">
         <v>0.3905998260719999</v>
       </c>
       <c r="N131">
-        <v>0.000280923019677</v>
+        <v>0.00173371234573</v>
       </c>
       <c r="O131">
         <v>0.412018460148</v>
@@ -8739,19 +8739,19 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S131">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T131">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U131">
-        <v>0.1636879614336708</v>
+        <v>0.2010879996414325</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M132">
         <v>0.3905096596099999</v>
       </c>
       <c r="N132">
-        <v>0.0268937337484</v>
+        <v>0.156828236899</v>
       </c>
       <c r="O132">
         <v>0.05163677829530001</v>
@@ -8801,19 +8801,19 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S132">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T132">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U132">
-        <v>0.13013471606102</v>
+        <v>0.216763755848825</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8848,13 +8848,13 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M133">
         <v>0.401121597631</v>
       </c>
       <c r="N133">
-        <v>0.00345176176104</v>
+        <v>0.0193266623697</v>
       </c>
       <c r="O133">
         <v>0.059705024904</v>
@@ -8863,19 +8863,19 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S133">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T133">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U133">
-        <v>0.124493964192016</v>
+        <v>0.187058408373925</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M134">
         <v>0.390734102891</v>
@@ -8928,19 +8928,19 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S134">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T134">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U134">
-        <v>0.189685781517</v>
+        <v>0.26544239531825</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8978,13 +8978,13 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0.015259674909</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0.389994647147</v>
       </c>
       <c r="N135">
-        <v>0.0005339535497840001</v>
+        <v>0.00313013227262</v>
       </c>
       <c r="O135">
         <v>0.332115924567</v>
@@ -8993,19 +8993,19 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S135">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T135">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U135">
-        <v>0.1476876307445136</v>
+        <v>0.181310175996655</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -9043,13 +9043,13 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0.0973011491633</v>
+        <v>0.05842281180509999</v>
       </c>
       <c r="M136">
         <v>0.4839146406499999</v>
       </c>
       <c r="N136">
-        <v>0.00368289134524</v>
+        <v>0.0222767115021</v>
       </c>
       <c r="O136">
         <v>0.7661043482979999</v>
@@ -9058,19 +9058,19 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S136">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T136">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U136">
-        <v>0.270937184160356</v>
+        <v>0.3326796280637999</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -9108,13 +9108,13 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0.08417108864700001</v>
+        <v>0.119158166221</v>
       </c>
       <c r="M137">
         <v>0.390467545168</v>
       </c>
       <c r="N137">
-        <v>0.00241582663956</v>
+        <v>0.0136331037582</v>
       </c>
       <c r="O137">
         <v>0.261248513278</v>
@@ -9123,19 +9123,19 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S137">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T137">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U137">
-        <v>0.148143760074424</v>
+        <v>0.1961268321063</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M138">
         <v>0.398042900397</v>
@@ -9185,19 +9185,19 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S138">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T138">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U138">
-        <v>0.217272523537</v>
+        <v>0.29992582284325</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M139">
         <v>0.3983599717670001</v>
@@ -9247,19 +9247,19 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S139">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T139">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U139">
-        <v>0.2056100860732</v>
+        <v>0.2853477760135</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -9297,13 +9297,13 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0.153911088644</v>
+        <v>0.253198340516</v>
       </c>
       <c r="M140">
         <v>0.523339588811</v>
       </c>
       <c r="N140">
-        <v>0.00429542333491</v>
+        <v>0.0247598741034</v>
       </c>
       <c r="O140">
         <v>0.320633080733</v>
@@ -9312,19 +9312,19 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S140">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T140">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U140">
-        <v>0.201294920971564</v>
+        <v>0.28048272104085</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -9362,13 +9362,13 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>0.153082502385</v>
+        <v>0.238316332442</v>
       </c>
       <c r="M141">
         <v>0.389994647147</v>
       </c>
       <c r="N141">
-        <v>0.00307969574163</v>
+        <v>0.0177808299265</v>
       </c>
       <c r="O141">
         <v>0.180426681981</v>
@@ -9377,19 +9377,19 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S141">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T141">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U141">
-        <v>0.145932644599252</v>
+        <v>0.206629622874125</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M142">
         <v>0.407060609824</v>
@@ -9442,19 +9442,19 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S142">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T142">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U142">
-        <v>0.1690784858964</v>
+        <v>0.2396832757925</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>0.122521135985</v>
+        <v>0.197794657634</v>
       </c>
       <c r="M143">
         <v>0.5048534394250001</v>
       </c>
       <c r="N143">
-        <v>0.00451218697048</v>
+        <v>0.0254842799579</v>
       </c>
       <c r="O143">
         <v>0.275416189691</v>
@@ -9507,19 +9507,19 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S143">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T143">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U143">
-        <v>0.182363027808392</v>
+        <v>0.250887141676975</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M144">
         <v>0.410257216316</v>
@@ -9548,19 +9548,19 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S144">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T144">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U144">
-        <v>0.1129993782438</v>
+        <v>0.16958439122675</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M145">
         <v>0.413977113057</v>
@@ -9589,19 +9589,19 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S145">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T145">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U145">
-        <v>0.113743357592</v>
+        <v>0.170514365412</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M146">
         <v>0.456608948917</v>
@@ -9654,19 +9654,19 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S146">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T146">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U146">
-        <v>0.1951233022246</v>
+        <v>0.27223929620275</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M147">
         <v>0.408663226787</v>
@@ -9695,19 +9695,19 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S147">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T147">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U147">
-        <v>0.112680580338</v>
+        <v>0.1691858938445</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M148">
         <v>0.39767867784</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S148">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T148">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U148">
-        <v>0.1104836705486</v>
+        <v>0.16643975660775</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M149">
         <v>0.425301974114</v>
@@ -9801,19 +9801,19 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S149">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T149">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U149">
-        <v>0.2146614705028</v>
+        <v>0.2966620065505</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9848,13 +9848,13 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M150">
         <v>0.397623934015</v>
       </c>
       <c r="N150">
-        <v>0.0038536334003</v>
+        <v>0.0221865212342</v>
       </c>
       <c r="O150">
         <v>0.0381897006143</v>
@@ -9863,19 +9863,19 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S150">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T150">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U150">
-        <v>0.11965211526658</v>
+        <v>0.181520126113625</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9913,13 +9913,13 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M151">
         <v>0.442350426581</v>
       </c>
       <c r="N151">
-        <v>0.0008627617927969999</v>
+        <v>0.00499060734961</v>
       </c>
       <c r="O151">
         <v>0.250992808089</v>
@@ -9928,19 +9928,19 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S151">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T151">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U151">
-        <v>0.1699616866317188</v>
+        <v>0.2416035476526525</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9975,13 +9975,13 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M152">
         <v>0.451409016198</v>
       </c>
       <c r="N152">
-        <v>0.008895071841479999</v>
+        <v>0.0518079087306</v>
       </c>
       <c r="O152">
         <v>0.210850178039</v>
@@ -9990,19 +9990,19 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S152">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T152">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U152">
-        <v>0.166957802564592</v>
+        <v>0.24553686288965</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M153">
         <v>0.49249983437</v>
@@ -10031,19 +10031,19 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S153">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T153">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U153">
-        <v>0.1294479018546</v>
+        <v>0.19014504574025</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -10081,13 +10081,13 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M154">
         <v>0.398872037016</v>
       </c>
       <c r="N154">
-        <v>0.0006589227442139999</v>
+        <v>0.0037207686052</v>
       </c>
       <c r="O154">
         <v>0.391371432875</v>
@@ -10096,19 +10096,19 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S154">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T154">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U154">
-        <v>0.1892601980564856</v>
+        <v>0.2655111467718</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -10125,31 +10125,31 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M155">
         <v>0.420206580758</v>
       </c>
       <c r="N155">
-        <v>0.0006589227442139999</v>
+        <v>0.0037207686052</v>
       </c>
       <c r="P155">
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S155">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T155">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U155">
-        <v>0.1152528202298856</v>
+        <v>0.17300192448855</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M156">
         <v>0.411855705665</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S156">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T156">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U156">
-        <v>0.202998021371</v>
+        <v>0.28208269513575</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -10231,31 +10231,31 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0.154739674903</v>
+        <v>0.268080348591</v>
       </c>
       <c r="M157">
         <v>0.396366112653</v>
       </c>
       <c r="N157">
-        <v>0.0032093780924</v>
+        <v>0.0186293154314</v>
       </c>
       <c r="P157">
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S157">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T157">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U157">
-        <v>0.11150490874816</v>
+        <v>0.17076894416885</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="L158">
-        <v>0.230865922245</v>
+        <v>0.22034436064</v>
       </c>
       <c r="M158">
         <v>0.535604553978</v>
@@ -10308,19 +10308,19 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S158">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T158">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U158">
-        <v>0.2346020425444</v>
+        <v>0.29062216277925</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="L159">
-        <v>0.231694508503</v>
+        <v>0.235226368715</v>
       </c>
       <c r="M159">
         <v>0.391353679754</v>
       </c>
       <c r="N159">
-        <v>0.0110957179514</v>
+        <v>0.06599339626840001</v>
       </c>
       <c r="O159">
         <v>0.385124304786</v>
@@ -10370,19 +10370,19 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S159">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T159">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U159">
-        <v>0.20607278578916</v>
+        <v>0.26942443738085</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10420,13 +10420,13 @@
         <v>0</v>
       </c>
       <c r="L160">
-        <v>0.636121279212</v>
+        <v>0.603753389787</v>
       </c>
       <c r="M160">
         <v>0.400782878087</v>
       </c>
       <c r="N160">
-        <v>0.0205800122474</v>
+        <v>0.05760293415</v>
       </c>
       <c r="O160">
         <v>0.0452378240885</v>
@@ -10435,19 +10435,19 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S160">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T160">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U160">
-        <v>0.22466040117646</v>
+        <v>0.276844256528125</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10485,13 +10485,13 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0.589671311709</v>
+        <v>0.40563008468</v>
       </c>
       <c r="M161">
         <v>0.391027073487</v>
       </c>
       <c r="N161">
-        <v>0.00511658302688</v>
+        <v>0.0306834185252</v>
       </c>
       <c r="O161">
         <v>0.61525759222</v>
@@ -10500,19 +10500,19 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S161">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T161">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U161">
-        <v>0.321237828693952</v>
+        <v>0.36064954222805</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="L162">
-        <v>0.179342623418</v>
+        <v>0.11684562361</v>
       </c>
       <c r="M162">
         <v>0.4055854013490001</v>
@@ -10565,19 +10565,19 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S162">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T162">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U162">
-        <v>0.1872893176616</v>
+        <v>0.218487397125</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="L163">
-        <v>0.179342623418</v>
+        <v>0.11684562361</v>
       </c>
       <c r="M163">
         <v>0.484331508556</v>
@@ -10606,19 +10606,19 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S163">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T163">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U163">
-        <v>0.1327348263948</v>
+        <v>0.1502942830415</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10635,31 +10635,31 @@
         <v>0</v>
       </c>
       <c r="L164">
-        <v>0.308649342104</v>
+        <v>0.202372388839</v>
       </c>
       <c r="M164">
         <v>0.3905096596099999</v>
       </c>
       <c r="N164">
-        <v>0.403255901161</v>
+        <v>0.369652953391</v>
       </c>
       <c r="P164">
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S164">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T164">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U164">
-        <v>0.3011341608072</v>
+        <v>0.24063375046</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10676,31 +10676,31 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0.308649342104</v>
+        <v>0.202372388839</v>
       </c>
       <c r="M165">
         <v>0.3905096596099999</v>
       </c>
       <c r="N165">
-        <v>0.399361784964</v>
+        <v>0.356055718249</v>
       </c>
       <c r="P165">
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S165">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T165">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U165">
-        <v>0.2995765143284</v>
+        <v>0.2372344416745</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10717,31 +10717,31 @@
         <v>0</v>
       </c>
       <c r="L166">
-        <v>0.200304555844</v>
+        <v>0.179822685833</v>
       </c>
       <c r="M166">
         <v>0.409708728286</v>
       </c>
       <c r="N166">
-        <v>0.011482343606</v>
+        <v>0.06825567529969999</v>
       </c>
       <c r="P166">
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S166">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T166">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U166">
-        <v>0.1265955942684</v>
+        <v>0.164446772354675</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="L167">
-        <v>0.179342623418</v>
+        <v>0.11684562361</v>
       </c>
       <c r="M167">
         <v>0.47004862991</v>
@@ -10770,19 +10770,19 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S167">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T167">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U167">
-        <v>0.1298782506656</v>
+        <v>0.14672356338</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0.154714821109</v>
+        <v>0.24687967194</v>
       </c>
       <c r="M168">
         <v>0.487626794248</v>
@@ -10835,19 +10835,19 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S168">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T168">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U168">
-        <v>0.204462823531</v>
+        <v>0.2786197421215</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10885,13 +10885,13 @@
         <v>0</v>
       </c>
       <c r="L169">
-        <v>0.09195976958489999</v>
+        <v>0.157272982827</v>
       </c>
       <c r="M169">
         <v>0.397522955022</v>
       </c>
       <c r="N169">
-        <v>0.004820515557359999</v>
+        <v>0.027417933978</v>
       </c>
       <c r="O169">
         <v>0.249425361547</v>
@@ -10900,19 +10900,19 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S169">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T169">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U169">
-        <v>0.149709823453724</v>
+        <v>0.2079098083435</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10950,13 +10950,13 @@
         <v>0</v>
       </c>
       <c r="L170">
-        <v>0.380080670629</v>
+        <v>0.603145923088</v>
       </c>
       <c r="M170">
         <v>0.405538683602</v>
       </c>
       <c r="N170">
-        <v>0.00551438558381</v>
+        <v>0.0301451788389</v>
       </c>
       <c r="O170">
         <v>0.0200092515894</v>
@@ -10965,19 +10965,19 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S170">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T170">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U170">
-        <v>0.163331475397604</v>
+        <v>0.264709759279575</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -11015,13 +11015,13 @@
         <v>0</v>
       </c>
       <c r="L171">
-        <v>0.205610398834</v>
+        <v>0.404718884633</v>
       </c>
       <c r="M171">
         <v>0.394957618312</v>
       </c>
       <c r="N171">
-        <v>0.00059917655434</v>
+        <v>0.0038323399019</v>
       </c>
       <c r="O171">
         <v>0.223966841812</v>
@@ -11030,19 +11030,19 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R171">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S171">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T171">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U171">
-        <v>0.165146642413336</v>
+        <v>0.256868921164725</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="L172">
-        <v>0.319261028083</v>
+        <v>0.652164786438</v>
       </c>
       <c r="M172">
         <v>0.400112250761</v>
@@ -11095,19 +11095,19 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S172">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T172">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U172">
-        <v>0.2165077011554</v>
+        <v>0.353860566033</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -11124,31 +11124,31 @@
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0.319261028083</v>
+        <v>0.652164786438</v>
       </c>
       <c r="M173">
         <v>0.426197409967</v>
       </c>
       <c r="N173">
-        <v>0.0380282916839</v>
+        <v>0.106440227312</v>
       </c>
       <c r="P173">
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S173">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T173">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U173">
-        <v>0.16430300428356</v>
+        <v>0.29620060592925</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -11186,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>0.6944145457500001</v>
       </c>
       <c r="M174">
         <v>0.396487218708</v>
@@ -11201,19 +11201,19 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S174">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T174">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U174">
-        <v>0.3481500673560001</v>
+        <v>0.3587912206325</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -11251,13 +11251,13 @@
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0.220611896694</v>
+        <v>0.396210414323</v>
       </c>
       <c r="M175">
         <v>0.450661753296</v>
       </c>
       <c r="N175">
-        <v>0.000324863461394</v>
+        <v>0.00223488005485</v>
       </c>
       <c r="O175">
         <v>0.281779030448</v>
@@ -11266,19 +11266,19 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S175">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T175">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U175">
-        <v>0.1907404814721576</v>
+        <v>0.2827215195304625</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11316,13 +11316,13 @@
         <v>0</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>0.6944145457500001</v>
       </c>
       <c r="M176">
         <v>0.389994647147</v>
       </c>
       <c r="N176">
-        <v>0.00632134348475</v>
+        <v>0.03777523589909999</v>
       </c>
       <c r="O176">
         <v>0.492647137924</v>
@@ -11331,19 +11331,19 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S176">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T176">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U176">
-        <v>0.3790568944081</v>
+        <v>0.403707891680025</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11381,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0.8645106071100001</v>
+        <v>0.847207272875</v>
       </c>
       <c r="M177">
         <v>0.389994647147</v>
       </c>
       <c r="N177">
-        <v>0.0146471071842</v>
+        <v>0.0864808006859</v>
       </c>
       <c r="O177">
         <v>0.431113310455</v>
@@ -11396,19 +11396,19 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S177">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T177">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U177">
-        <v>0.34298255581608</v>
+        <v>0.438699007790725</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11425,31 +11425,31 @@
         <v>0</v>
       </c>
       <c r="L178">
-        <v>1</v>
+        <v>0.6944145457500001</v>
       </c>
       <c r="M178">
         <v>0.389994647147</v>
       </c>
       <c r="N178">
-        <v>0.468641668632</v>
+        <v>0.430327385032</v>
       </c>
       <c r="P178">
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S178">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T178">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U178">
-        <v>0.4654555968822001</v>
+        <v>0.37868414448225</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11487,13 +11487,13 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0.220611896694</v>
+        <v>0.396210414323</v>
       </c>
       <c r="M179">
         <v>0.508355055418</v>
       </c>
       <c r="N179">
-        <v>0.347818765932</v>
+        <v>0.378408899603</v>
       </c>
       <c r="O179">
         <v>0.385769764515</v>
@@ -11502,19 +11502,19 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S179">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T179">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U179">
-        <v>0.3620748496982</v>
+        <v>0.41718603346475</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11528,31 +11528,31 @@
         <v>0</v>
       </c>
       <c r="L180">
-        <v>0.729021214219</v>
+        <v>1</v>
       </c>
       <c r="M180">
         <v>0.389994647147</v>
       </c>
       <c r="N180">
-        <v>0.00768272276834</v>
+        <v>0.043931212016</v>
       </c>
       <c r="P180">
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S180">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T180">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U180">
-        <v>0.226876261380536</v>
+        <v>0.35848146479075</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11590,13 +11590,13 @@
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0.616994659842</v>
+        <v>0.611556862653</v>
       </c>
       <c r="M181">
         <v>0.396006965846</v>
       </c>
       <c r="N181">
-        <v>0.00133347385738</v>
+        <v>0.00792399910264</v>
       </c>
       <c r="O181">
         <v>0.267551779971</v>
@@ -11605,19 +11605,19 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S181">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T181">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U181">
-        <v>0.256644070674752</v>
+        <v>0.3207599018931601</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11655,13 +11655,13 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0.729021214219</v>
+        <v>1</v>
       </c>
       <c r="M182">
         <v>0.387737539759</v>
       </c>
       <c r="N182">
-        <v>0.003029494322</v>
+        <v>0.0164225872024</v>
       </c>
       <c r="O182">
         <v>0.108733070129</v>
@@ -11670,19 +11670,19 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S182">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T182">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U182">
-        <v>0.2463101625502</v>
+        <v>0.3782232992726</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11699,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>1</v>
+        <v>0.6944145457500001</v>
       </c>
       <c r="M183">
         <v>0.38367401728</v>
@@ -11711,19 +11711,19 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S183">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T183">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U183">
-        <v>0.276734803456</v>
+        <v>0.2695221407575</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -11761,13 +11761,13 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M184">
         <v>0.416985035703</v>
       </c>
       <c r="N184">
-        <v>0.379486380413</v>
+        <v>0.469544150852</v>
       </c>
       <c r="O184">
         <v>0.305835212082</v>
@@ -11776,19 +11776,19 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S184">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T184">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U184">
-        <v>0.3207511547834</v>
+        <v>0.3331551102115</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -11805,31 +11805,31 @@
         <v>0</v>
       </c>
       <c r="L185">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M185">
         <v>0.39367560889</v>
       </c>
       <c r="N185">
-        <v>0.00576690567957</v>
+        <v>0.0347863542452</v>
       </c>
       <c r="P185">
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S185">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T185">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U185">
-        <v>0.105434437111028</v>
+        <v>0.14217950133605</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -11867,13 +11867,13 @@
         <v>0</v>
       </c>
       <c r="L186">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M186">
         <v>0.387547506078</v>
       </c>
       <c r="N186">
-        <v>0.00380413999452</v>
+        <v>0.023017052032</v>
       </c>
       <c r="O186">
         <v>0.237690545091</v>
@@ -11882,19 +11882,19 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S186">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T186">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U186">
-        <v>0.150961819292808</v>
+        <v>0.1971277863525</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -11932,13 +11932,13 @@
         <v>0</v>
       </c>
       <c r="L187">
-        <v>0.616994659842</v>
+        <v>0.611556862653</v>
       </c>
       <c r="M187">
         <v>0.402338808457</v>
       </c>
       <c r="N187">
-        <v>0.003029494322</v>
+        <v>0.0164225872024</v>
       </c>
       <c r="O187">
         <v>0.144152672741</v>
@@ -11947,19 +11947,19 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S187">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T187">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U187">
-        <v>0.2339090259368</v>
+        <v>0.29361773276335</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -11976,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="L188">
-        <v>0.6077630766309999</v>
+        <v>0.616026628504</v>
       </c>
       <c r="M188">
         <v>0.395442299001</v>
@@ -11988,19 +11988,19 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S188">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T188">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U188">
-        <v>0.2006410751264</v>
+        <v>0.25286723187625</v>
       </c>
     </row>
     <row r="189" spans="1:21">
@@ -12038,13 +12038,13 @@
         <v>0</v>
       </c>
       <c r="L189">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M189">
         <v>0.385350367796</v>
       </c>
       <c r="N189">
-        <v>0.0014951220519</v>
+        <v>0.009173789407889999</v>
       </c>
       <c r="O189">
         <v>0.326453670473</v>
@@ -12053,19 +12053,19 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S189">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T189">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U189">
-        <v>0.16735140953576</v>
+        <v>0.2153084674714725</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -12103,13 +12103,13 @@
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M190">
         <v>0.392021367546</v>
       </c>
       <c r="N190">
-        <v>0.429504123604</v>
+        <v>0.385328579095</v>
       </c>
       <c r="O190">
         <v>0.340923760448</v>
@@ -12118,19 +12118,19 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S190">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T190">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U190">
-        <v>0.3427832281016001</v>
+        <v>0.3146324373245</v>
       </c>
     </row>
     <row r="191" spans="1:21">
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0.405410260327</v>
+        <v>0.32944530924</v>
       </c>
       <c r="M191">
         <v>0.458292986989</v>
@@ -12183,19 +12183,19 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S191">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T191">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U191">
-        <v>0.263273548187</v>
+        <v>0.310100697462</v>
       </c>
     </row>
     <row r="192" spans="1:21">
@@ -12212,31 +12212,31 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0.09426801567449999</v>
+        <v>0.153665339761</v>
       </c>
       <c r="M192">
         <v>0.382932901286</v>
       </c>
       <c r="N192">
-        <v>0.315091376937</v>
+        <v>0.342234538658</v>
       </c>
       <c r="P192">
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S192">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T192">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U192">
-        <v>0.2214767341669</v>
+        <v>0.21970819492625</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0.09426801567449999</v>
+        <v>0.153665339761</v>
       </c>
       <c r="M193">
         <v>0.38367401728</v>
@@ -12289,19 +12289,19 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S193">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T193">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U193">
-        <v>0.1599676356969</v>
+        <v>0.21480887564275</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -12339,13 +12339,13 @@
         <v>0</v>
       </c>
       <c r="L194">
-        <v>0.122497071314</v>
+        <v>0.144029627984</v>
       </c>
       <c r="M194">
         <v>0.218148108575</v>
       </c>
       <c r="N194">
-        <v>0.315091376937</v>
+        <v>0.342234538658</v>
       </c>
       <c r="O194">
         <v>0.341025574037</v>
@@ -12354,19 +12354,19 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S194">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T194">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U194">
-        <v>0.26237070156</v>
+        <v>0.2613594623135</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -12404,13 +12404,13 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M195">
         <v>0.384646053792</v>
       </c>
       <c r="N195">
-        <v>0.000458062005931</v>
+        <v>0.0026524761534</v>
       </c>
       <c r="O195">
         <v>0.228842367977</v>
@@ -12419,19 +12419,19 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S195">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T195">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U195">
-        <v>0.1472734622173724</v>
+        <v>0.18909923503285</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -12469,13 +12469,13 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M196">
         <v>0.387941090206</v>
       </c>
       <c r="N196">
-        <v>0.0006802205421129999</v>
+        <v>0.00382016445625</v>
       </c>
       <c r="O196">
         <v>0.456268310438</v>
@@ -12484,19 +12484,19 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S196">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T196">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U196">
-        <v>0.1935065214068452</v>
+        <v>0.2470714018273125</v>
       </c>
     </row>
     <row r="197" spans="1:21">
@@ -12534,13 +12534,13 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>0.103819243384</v>
+        <v>0.0890404592468</v>
       </c>
       <c r="M197">
         <v>0.472422483507</v>
       </c>
       <c r="N197">
-        <v>0.351249781061</v>
+        <v>0.320533305836</v>
       </c>
       <c r="O197">
         <v>0.163462676291</v>
@@ -12549,19 +12549,19 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S197">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U197">
-        <v>0.2884407930608</v>
+        <v>0.2613647312202</v>
       </c>
     </row>
     <row r="198" spans="1:21">
@@ -12596,13 +12596,13 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M198">
         <v>0.388088960197</v>
       </c>
       <c r="N198">
-        <v>3.1511752258e-05</v>
+        <v>0.000193069093223</v>
       </c>
       <c r="O198">
         <v>0.512064718095</v>
@@ -12611,19 +12611,19 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S198">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T198">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U198">
-        <v>0.2044358934205032</v>
+        <v>0.2601506973985557</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -12658,13 +12658,13 @@
         <v>0</v>
       </c>
       <c r="L199">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M199">
         <v>0.391251948786</v>
       </c>
       <c r="N199">
-        <v>0.00394523002685</v>
+        <v>0.0230624720423</v>
       </c>
       <c r="O199">
         <v>0.108652387663</v>
@@ -12673,19 +12673,19 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S199">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T199">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U199">
-        <v>0.12595151236174</v>
+        <v>0.165805712675075</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -12702,31 +12702,31 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M200">
         <v>0.390991798883</v>
       </c>
       <c r="N200">
-        <v>0.000349755610796</v>
+        <v>0.0020086379646</v>
       </c>
       <c r="P200">
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S200">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U200">
-        <v>0.1027308150821184</v>
+        <v>0.13331411976415</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -12764,13 +12764,13 @@
         <v>0</v>
       </c>
       <c r="L201">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M201">
         <v>0.389023058698</v>
       </c>
       <c r="N201">
-        <v>0.003185805054</v>
+        <v>0.0189282520018</v>
       </c>
       <c r="O201">
         <v>0.352851318351</v>
@@ -12779,19 +12779,19 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S201">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T201">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U201">
-        <v>0.1740417504926</v>
+        <v>0.22526466781495</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -12826,13 +12826,13 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M202">
         <v>0.391702950787</v>
       </c>
       <c r="N202">
-        <v>0.000432231248746</v>
+        <v>0.00249171096382</v>
       </c>
       <c r="O202">
         <v>0.512064718095</v>
@@ -12841,19 +12841,19 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S202">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T202">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U202">
-        <v>0.2053189793370984</v>
+        <v>0.261628855513705</v>
       </c>
     </row>
     <row r="203" spans="1:21">
@@ -12870,31 +12870,31 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>0.16612682361</v>
+        <v>0.161065561229</v>
       </c>
       <c r="M203">
         <v>0.389502306145</v>
       </c>
       <c r="N203">
-        <v>0.000432231248746</v>
+        <v>0.00249171096382</v>
       </c>
       <c r="P203">
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R203">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S203">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T203">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U203">
-        <v>0.1112987184504984</v>
+        <v>0.138264894584455</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M204">
         <v>0.387256492171</v>
@@ -12944,19 +12944,19 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R204">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S204">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T204">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U204">
-        <v>0.2008143432282</v>
+        <v>0.255591248261</v>
       </c>
     </row>
     <row r="205" spans="1:21">
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>0.150726126953</v>
+        <v>0.134393916207</v>
       </c>
       <c r="M205">
         <v>0.198812001612</v>
@@ -12985,19 +12985,19 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S205">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T205">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U205">
-        <v>0.06990762571300001</v>
+        <v>0.08330147945475</v>
       </c>
     </row>
     <row r="206" spans="1:21">
@@ -13035,13 +13035,13 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>0.16612682361</v>
+        <v>0.161065561229</v>
       </c>
       <c r="M206">
         <v>0.442743638623</v>
       </c>
       <c r="N206">
-        <v>0.000378569682892</v>
+        <v>0.00223679425844</v>
       </c>
       <c r="O206">
         <v>0.299285844914</v>
@@ -13050,19 +13050,19 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S206">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U206">
-        <v>0.1817826893025568</v>
+        <v>0.22633295975611</v>
       </c>
     </row>
     <row r="207" spans="1:21">
@@ -13100,13 +13100,13 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0.121962765306</v>
+        <v>0.140256042209</v>
       </c>
       <c r="M207">
         <v>0.385290641798</v>
       </c>
       <c r="N207">
-        <v>0.8303430741310001</v>
+        <v>0.7503632526389999</v>
       </c>
       <c r="O207">
         <v>0.259985799886</v>
@@ -13115,19 +13115,19 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S207">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T207">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U207">
-        <v>0.4855850710504001</v>
+        <v>0.383973934133</v>
       </c>
     </row>
     <row r="208" spans="1:21">
@@ -13162,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0.210290881914</v>
+        <v>0.181875080248</v>
       </c>
       <c r="M208">
         <v>0.441487443403</v>
@@ -13177,19 +13177,19 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S208">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U208">
-        <v>0.152086142596</v>
+        <v>0.1830037278285</v>
       </c>
     </row>
     <row r="209" spans="1:21">
@@ -13227,13 +13227,13 @@
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0.210290881914</v>
+        <v>0.181875080248</v>
       </c>
       <c r="M209">
         <v>0.470700602112</v>
       </c>
       <c r="N209">
-        <v>0.000432231248746</v>
+        <v>0.00249171096382</v>
       </c>
       <c r="O209">
         <v>0.188205299224</v>
@@ -13242,19 +13242,19 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S209">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T209">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U209">
-        <v>0.1740122491494984</v>
+        <v>0.210818173136955</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="L210">
-        <v>0.150726126953</v>
+        <v>0.134393916207</v>
       </c>
       <c r="M210">
         <v>0.399356483112</v>
@@ -13283,19 +13283,19 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S210">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U210">
-        <v>0.110016522013</v>
+        <v>0.13343759982975</v>
       </c>
     </row>
     <row r="211" spans="1:21">
@@ -13333,13 +13333,13 @@
         <v>0</v>
       </c>
       <c r="L211">
-        <v>0.16612682361</v>
+        <v>0.161065561229</v>
       </c>
       <c r="M211">
         <v>0.385499222662</v>
       </c>
       <c r="N211">
-        <v>0.8303430741310001</v>
+        <v>0.7503632526389999</v>
       </c>
       <c r="O211">
         <v>0.248179265682</v>
@@ -13348,19 +13348,19 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S211">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T211">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U211">
-        <v>0.4920982920432</v>
+        <v>0.3862768255529999</v>
       </c>
     </row>
     <row r="212" spans="1:21">
@@ -13398,13 +13398,13 @@
         <v>0</v>
       </c>
       <c r="L212">
-        <v>0.14614766819</v>
+        <v>0.115535306562</v>
       </c>
       <c r="M212">
         <v>0.24095622246</v>
       </c>
       <c r="N212">
-        <v>0.000998183356238</v>
+        <v>0.005767215567229999</v>
       </c>
       <c r="O212">
         <v>0.411269906157</v>
@@ -13413,19 +13413,19 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S212">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T212">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U212">
-        <v>0.1600740327038952</v>
+        <v>0.1933821626865575</v>
       </c>
     </row>
     <row r="213" spans="1:21">
@@ -13463,13 +13463,13 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>0.14614766819</v>
+        <v>0.115535306562</v>
       </c>
       <c r="M213">
         <v>0.28377561517</v>
       </c>
       <c r="N213">
-        <v>0.000357268421951</v>
+        <v>0.00218670477913</v>
       </c>
       <c r="O213">
         <v>0.334899967687</v>
@@ -13478,19 +13478,19 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S213">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U213">
-        <v>0.1531075575781804</v>
+        <v>0.1840993985495325</v>
       </c>
     </row>
     <row r="214" spans="1:21">
@@ -13528,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="L214">
-        <v>0.210290881914</v>
+        <v>0.181875080248</v>
       </c>
       <c r="M214">
         <v>0.5609578660019999</v>
@@ -13543,19 +13543,19 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S214">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U214">
-        <v>0.208893294448</v>
+        <v>0.2540126676434999</v>
       </c>
     </row>
     <row r="215" spans="1:21">
@@ -13569,31 +13569,31 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0.210290881914</v>
+        <v>0.181875080248</v>
       </c>
       <c r="M215">
         <v>0.5609578660019999</v>
       </c>
       <c r="N215">
-        <v>0.000432231248746</v>
+        <v>0.00249171096382</v>
       </c>
       <c r="P215">
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S215">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U215">
-        <v>0.1544226420826984</v>
+        <v>0.1863311643034549</v>
       </c>
     </row>
     <row r="216" spans="1:21">
@@ -13631,13 +13631,13 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0.210290881914</v>
+        <v>0.181875080248</v>
       </c>
       <c r="M216">
         <v>0.375194592392</v>
       </c>
       <c r="N216">
-        <v>0.421167576302</v>
+        <v>0.3946239989500001</v>
       </c>
       <c r="O216">
         <v>0.23960899484</v>
@@ -13646,19 +13646,19 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S216">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U216">
-        <v>0.33348592435</v>
+        <v>0.2978256666075</v>
       </c>
     </row>
     <row r="217" spans="1:21">
@@ -13675,31 +13675,31 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0.150726126953</v>
+        <v>0.134393916207</v>
       </c>
       <c r="M217">
         <v>0.196831925801</v>
       </c>
       <c r="N217">
-        <v>0.053791540194</v>
+        <v>0.152805168358</v>
       </c>
       <c r="P217">
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S217">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T217">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U217">
-        <v>0.0910282266284</v>
+        <v>0.1210077525915</v>
       </c>
     </row>
     <row r="218" spans="1:21">
@@ -13716,31 +13716,31 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>0.150726126953</v>
+        <v>0.134393916207</v>
       </c>
       <c r="M218">
         <v>0.0118253993712</v>
       </c>
       <c r="N218">
-        <v>0.406260129156</v>
+        <v>0.415704730267</v>
       </c>
       <c r="P218">
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S218">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T218">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U218">
-        <v>0.19501435692724</v>
+        <v>0.1404810114613</v>
       </c>
     </row>
     <row r="219" spans="1:21">
@@ -13757,31 +13757,31 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>0.150726126953</v>
+        <v>0.134393916207</v>
       </c>
       <c r="M219">
         <v>0.009191595097290001</v>
       </c>
       <c r="N219">
-        <v>0.391612653706</v>
+        <v>0.373843043672</v>
       </c>
       <c r="P219">
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S219">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T219">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U219">
-        <v>0.188628605892458</v>
+        <v>0.1293571387440725</v>
       </c>
     </row>
     <row r="220" spans="1:21">
@@ -13798,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="L220">
-        <v>0.150726126953</v>
+        <v>0.134393916207</v>
       </c>
       <c r="M220">
         <v>0.00804870481423</v>
@@ -13810,19 +13810,19 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S220">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U220">
-        <v>0.031754966353446</v>
+        <v>0.0356106552553075</v>
       </c>
     </row>
     <row r="221" spans="1:21">
@@ -13860,13 +13860,13 @@
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0.12289137198</v>
+        <v>0.157141078578</v>
       </c>
       <c r="M221">
         <v>0.157187077941</v>
       </c>
       <c r="N221">
-        <v>0.459879201752</v>
+        <v>0.441925483549</v>
       </c>
       <c r="O221">
         <v>0.391826328302</v>
@@ -13875,19 +13875,19 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S221">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T221">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U221">
-        <v>0.3183326363454</v>
+        <v>0.2870199920925</v>
       </c>
     </row>
     <row r="222" spans="1:21">
@@ -13922,7 +13922,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0.0950566170068</v>
+        <v>0.179888240949</v>
       </c>
       <c r="M222">
         <v>0.380486369659</v>
@@ -13937,19 +13937,19 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S222">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U222">
-        <v>0.16503340127476</v>
+        <v>0.227499657579</v>
       </c>
     </row>
     <row r="223" spans="1:21">
@@ -13987,13 +13987,13 @@
         <v>0</v>
       </c>
       <c r="L223">
-        <v>0.0950566170068</v>
+        <v>0.179888240949</v>
       </c>
       <c r="M223">
         <v>0.252042807052</v>
       </c>
       <c r="N223">
-        <v>0.459879201752</v>
+        <v>0.441925483549</v>
       </c>
       <c r="O223">
         <v>0.433623431623</v>
@@ -14002,19 +14002,19 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S223">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T223">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U223">
-        <v>0.34009625183716</v>
+        <v>0.32686999079325</v>
       </c>
     </row>
     <row r="224" spans="1:21">
@@ -14052,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>0.08200445446650001</v>
+        <v>0.0491955328761</v>
       </c>
       <c r="M224">
         <v>0.0169368986292</v>
@@ -14067,19 +14067,19 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R224">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S224">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T224">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U224">
-        <v>0.04883395841034001</v>
+        <v>0.05284021761532501</v>
       </c>
     </row>
     <row r="225" spans="1:21">
@@ -14117,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="L225">
-        <v>0.0950566170068</v>
+        <v>0.179888240949</v>
       </c>
       <c r="M225">
         <v>0.106072250327</v>
@@ -14132,19 +14132,19 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S225">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T225">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U225">
-        <v>0.09985011590476001</v>
+        <v>0.1460205508665</v>
       </c>
     </row>
     <row r="226" spans="1:21">
@@ -14182,13 +14182,13 @@
         <v>0</v>
       </c>
       <c r="L226">
-        <v>0.0950566170068</v>
+        <v>0.179888240949</v>
       </c>
       <c r="M226">
         <v>0.195279672469</v>
       </c>
       <c r="N226">
-        <v>0.459879201752</v>
+        <v>0.441925483549</v>
       </c>
       <c r="O226">
         <v>0.434140823945</v>
@@ -14197,19 +14197,19 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S226">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T226">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U226">
-        <v>0.32884710338496</v>
+        <v>0.312808555228</v>
       </c>
     </row>
     <row r="227" spans="1:21">
@@ -14247,7 +14247,7 @@
         <v>0</v>
       </c>
       <c r="L227">
-        <v>0.08200445446650001</v>
+        <v>0.0491955328761</v>
       </c>
       <c r="M227">
         <v>0.104328645245</v>
@@ -14262,19 +14262,19 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S227">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T227">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U227">
-        <v>0.1254019943627</v>
+        <v>0.148550262555775</v>
       </c>
     </row>
     <row r="228" spans="1:21">
@@ -14312,13 +14312,13 @@
         <v>0</v>
       </c>
       <c r="L228">
-        <v>0.08200445446650001</v>
+        <v>0.0491955328761</v>
       </c>
       <c r="M228">
         <v>0.00884881145511</v>
       </c>
       <c r="N228">
-        <v>0.00305684112562</v>
+        <v>0.018030599829</v>
       </c>
       <c r="O228">
         <v>0.314037673333</v>
@@ -14327,19 +14327,19 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R228">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S228">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T228">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U228">
-        <v>0.08220092430117</v>
+        <v>0.09752815437330249</v>
       </c>
     </row>
     <row r="229" spans="1:21">
@@ -14377,13 +14377,13 @@
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0.109639401078</v>
+        <v>0.178227565705</v>
       </c>
       <c r="M229">
         <v>0.242159096174</v>
       </c>
       <c r="N229">
-        <v>0.607017803585</v>
+        <v>0.5452147616659999</v>
       </c>
       <c r="O229">
         <v>0.79370415507</v>
@@ -14392,19 +14392,19 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S229">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T229">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U229">
-        <v>0.4719076518984</v>
+        <v>0.43982639465375</v>
       </c>
     </row>
     <row r="230" spans="1:21">
@@ -14442,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="L230">
-        <v>0.08200445446650001</v>
+        <v>0.0491955328761</v>
       </c>
       <c r="M230">
         <v>0.09492119745510001</v>
@@ -14457,19 +14457,19 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S230">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T230">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U230">
-        <v>0.10783798492992</v>
+        <v>0.1265952507648</v>
       </c>
     </row>
     <row r="231" spans="1:21">
@@ -14507,13 +14507,13 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0.0950566170068</v>
+        <v>0.179888240949</v>
       </c>
       <c r="M231">
         <v>0.380100379617</v>
       </c>
       <c r="N231">
-        <v>0.00166377561119</v>
+        <v>0.009781621143809999</v>
       </c>
       <c r="O231">
         <v>0.275735017266</v>
@@ -14522,19 +14522,19 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S231">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T231">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U231">
-        <v>0.150843913022436</v>
+        <v>0.2113763147439525</v>
       </c>
     </row>
     <row r="232" spans="1:21">
@@ -14572,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="L232">
-        <v>0.0950566170068</v>
+        <v>0.179888240949</v>
       </c>
       <c r="M232">
         <v>0.118050442234</v>
@@ -14587,19 +14587,19 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S232">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T232">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U232">
-        <v>0.11196261261836</v>
+        <v>0.1611611717585</v>
       </c>
     </row>
     <row r="233" spans="1:21">
@@ -14637,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="L233">
-        <v>0.0950566170068</v>
+        <v>0.179888240949</v>
       </c>
       <c r="M233">
         <v>0.5520396574800001</v>
@@ -14652,19 +14652,19 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S233">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U233">
-        <v>0.19818223132736</v>
+        <v>0.26893569514475</v>
       </c>
     </row>
     <row r="234" spans="1:21">
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0.0950566170068</v>
+        <v>0.179888240949</v>
       </c>
       <c r="M234">
         <v>0.0261426162245</v>
@@ -14717,19 +14717,19 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S234">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U234">
-        <v>0.08107795458866</v>
+        <v>0.122555349221375</v>
       </c>
     </row>
     <row r="235" spans="1:21">
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="L235">
-        <v>0.116165482348</v>
+        <v>0.243573919742</v>
       </c>
       <c r="M235">
         <v>0.5330562821670001</v>
@@ -14782,19 +14782,19 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S235">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T235">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U235">
-        <v>0.180340819011</v>
+        <v>0.25727813311225</v>
       </c>
     </row>
     <row r="236" spans="1:21">
@@ -14832,13 +14832,13 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0.116165482348</v>
+        <v>0.243573919742</v>
       </c>
       <c r="M236">
         <v>0.6062761588719999</v>
       </c>
       <c r="N236">
-        <v>0.00166377561119</v>
+        <v>0.009781621143809999</v>
       </c>
       <c r="O236">
         <v>0.342355874221</v>
@@ -14847,19 +14847,19 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S236">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T236">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U236">
-        <v>0.213625013332676</v>
+        <v>0.3004968934947025</v>
       </c>
     </row>
     <row r="237" spans="1:21">
@@ -14876,31 +14876,31 @@
         <v>0</v>
       </c>
       <c r="L237">
-        <v>0.116165482348</v>
+        <v>0.243573919742</v>
       </c>
       <c r="M237">
         <v>0.5573300109130001</v>
       </c>
       <c r="N237">
-        <v>0.00166377561119</v>
+        <v>0.009781621143809999</v>
       </c>
       <c r="P237">
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S237">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T237">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U237">
-        <v>0.135364608896676</v>
+        <v>0.2026713879497025</v>
       </c>
     </row>
     <row r="238" spans="1:21">
@@ -14938,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="L238">
-        <v>0.116165482348</v>
+        <v>0.243573919742</v>
       </c>
       <c r="M238">
         <v>0.175477030852</v>
@@ -14953,19 +14953,19 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S238">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T238">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U238">
-        <v>0.199060911173</v>
+        <v>0.28067824831475</v>
       </c>
     </row>
     <row r="239" spans="1:21">
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="L239">
-        <v>0.13727434769</v>
+        <v>0.307259598534</v>
       </c>
       <c r="M239">
         <v>7.79286623485e-07</v>
@@ -15018,19 +15018,19 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S239">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U239">
-        <v>0.06203553035992469</v>
+        <v>0.1200407256609059</v>
       </c>
     </row>
     <row r="240" spans="1:21">
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="L240">
-        <v>0.13727434769</v>
+        <v>0.307259598534</v>
       </c>
       <c r="M240">
         <v>0.00289833696371</v>
@@ -15083,19 +15083,19 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S240">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U240">
-        <v>0.071789022491742</v>
+        <v>0.1322325908256775</v>
       </c>
     </row>
     <row r="241" spans="1:21">
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="L241">
-        <v>0.13727434769</v>
+        <v>0.307259598534</v>
       </c>
       <c r="M241">
         <v>0</v>
@@ -15148,19 +15148,19 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S241">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T241">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U241">
-        <v>0.05128309118880001</v>
+        <v>0.106600176697</v>
       </c>
     </row>
   </sheetData>
